--- a/excel/data_excel/MonLvl.xlsx
+++ b/excel/data_excel/MonLvl.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE0C07-F949-45CF-B19F-286332C1A5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MonLvl" localSheetId="0">Sheet1!$A$1:$P$112</definedName>
+    <definedName name="MonLvl" localSheetId="0">Sheet1!$B$1:$Q$114</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MonLvl" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MonLvl" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\MonLvl.txt">
       <textFields count="16">
         <textField/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Level</t>
   </si>
@@ -95,11 +96,27 @@
   <si>
     <t>L-XP(H)</t>
   </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_MonLvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,12 +165,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MonLvl" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MonLvl" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,5623 +496,6067 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>108</v>
       </c>
-      <c r="D3">
+      <c r="E5">
         <v>173</v>
       </c>
-      <c r="E3">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="G5">
         <v>108</v>
       </c>
-      <c r="G3">
+      <c r="H5">
         <v>216</v>
       </c>
-      <c r="H3">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="J5">
         <v>107</v>
       </c>
-      <c r="J3">
+      <c r="K5">
         <v>1107</v>
       </c>
-      <c r="K3">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="O5">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="P5">
         <v>78</v>
       </c>
-      <c r="P3">
+      <c r="Q5">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D6">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="E6">
         <v>190</v>
       </c>
-      <c r="E4">
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="G6">
         <v>126</v>
       </c>
-      <c r="G4">
+      <c r="H6">
         <v>254</v>
       </c>
-      <c r="H4">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="J6">
         <v>113</v>
       </c>
-      <c r="J4">
+      <c r="K6">
         <v>1136</v>
       </c>
-      <c r="K4">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="N4">
+      <c r="O6">
         <v>40</v>
       </c>
-      <c r="O4">
+      <c r="P6">
         <v>104</v>
       </c>
-      <c r="P4">
+      <c r="Q6">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C7">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="D7">
         <v>132</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>208</v>
       </c>
-      <c r="E5">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="G7">
         <v>144</v>
       </c>
-      <c r="G5">
+      <c r="H7">
         <v>292</v>
       </c>
-      <c r="H5">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="J7">
         <v>120</v>
       </c>
-      <c r="J5">
+      <c r="K7">
         <v>1167</v>
       </c>
-      <c r="K5">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="O7">
         <v>50</v>
       </c>
-      <c r="O5">
+      <c r="P7">
         <v>131</v>
       </c>
-      <c r="P5">
+      <c r="Q7">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="D8">
         <v>144</v>
       </c>
-      <c r="D6">
+      <c r="E8">
         <v>226</v>
       </c>
-      <c r="E6">
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="F6">
+      <c r="G8">
         <v>162</v>
       </c>
-      <c r="G6">
+      <c r="H8">
         <v>330</v>
       </c>
-      <c r="H6">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="J8">
         <v>125</v>
       </c>
-      <c r="J6">
+      <c r="K8">
         <v>1196</v>
       </c>
-      <c r="K6">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="O8">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="P8">
         <v>156</v>
       </c>
-      <c r="P6">
+      <c r="Q8">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C9">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="D9">
         <v>156</v>
       </c>
-      <c r="D7">
+      <c r="E9">
         <v>243</v>
       </c>
-      <c r="E7">
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="G9">
         <v>180</v>
       </c>
-      <c r="G7">
+      <c r="H9">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="I9">
         <v>17</v>
       </c>
-      <c r="I7">
+      <c r="J9">
         <v>132</v>
       </c>
-      <c r="J7">
+      <c r="K9">
         <v>1227</v>
       </c>
-      <c r="K7">
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="O9">
         <v>70</v>
       </c>
-      <c r="O7">
+      <c r="P9">
         <v>182</v>
       </c>
-      <c r="P7">
+      <c r="Q9">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C10">
         <v>36</v>
       </c>
-      <c r="C8">
+      <c r="D10">
         <v>168</v>
       </c>
-      <c r="D8">
+      <c r="E10">
         <v>261</v>
       </c>
-      <c r="E8">
+      <c r="F10">
         <v>45</v>
       </c>
-      <c r="F8">
+      <c r="G10">
         <v>198</v>
       </c>
-      <c r="G8">
+      <c r="H10">
         <v>406</v>
       </c>
-      <c r="H8">
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="J10">
         <v>139</v>
       </c>
-      <c r="J8">
+      <c r="K10">
         <v>1256</v>
       </c>
-      <c r="K8">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="M10">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="N10">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="O10">
         <v>80</v>
       </c>
-      <c r="O8">
+      <c r="P10">
         <v>207</v>
       </c>
-      <c r="P8">
+      <c r="Q10">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C11">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="D11">
         <v>180</v>
       </c>
-      <c r="D9">
+      <c r="E11">
         <v>278</v>
       </c>
-      <c r="E9">
+      <c r="F11">
         <v>56</v>
       </c>
-      <c r="F9">
+      <c r="G11">
         <v>216</v>
       </c>
-      <c r="G9">
+      <c r="H11">
         <v>444</v>
       </c>
-      <c r="H9">
+      <c r="I11">
         <v>23</v>
       </c>
-      <c r="I9">
+      <c r="J11">
         <v>145</v>
       </c>
-      <c r="J9">
+      <c r="K11">
         <v>1287</v>
       </c>
-      <c r="K9">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="N11">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="O11">
         <v>90</v>
       </c>
-      <c r="O9">
+      <c r="P11">
         <v>234</v>
       </c>
-      <c r="P9">
+      <c r="Q11">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C12">
         <v>48</v>
       </c>
-      <c r="C10">
+      <c r="D12">
         <v>192</v>
       </c>
-      <c r="D10">
+      <c r="E12">
         <v>296</v>
       </c>
-      <c r="E10">
+      <c r="F12">
         <v>67</v>
       </c>
-      <c r="F10">
+      <c r="G12">
         <v>234</v>
       </c>
-      <c r="G10">
+      <c r="H12">
         <v>482</v>
       </c>
-      <c r="H10">
+      <c r="I12">
         <v>27</v>
       </c>
-      <c r="I10">
+      <c r="J12">
         <v>152</v>
       </c>
-      <c r="J10">
+      <c r="K12">
         <v>1316</v>
       </c>
-      <c r="K10">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="M10">
+      <c r="N12">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="O10">
+      <c r="P12">
         <v>260</v>
       </c>
-      <c r="P10">
+      <c r="Q12">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C13">
         <v>54</v>
       </c>
-      <c r="C11">
+      <c r="D13">
         <v>204</v>
       </c>
-      <c r="D11">
+      <c r="E13">
         <v>314</v>
       </c>
-      <c r="E11">
+      <c r="F13">
         <v>78</v>
       </c>
-      <c r="F11">
+      <c r="G13">
         <v>252</v>
       </c>
-      <c r="G11">
+      <c r="H13">
         <v>520</v>
       </c>
-      <c r="H11">
+      <c r="I13">
         <v>31</v>
       </c>
-      <c r="I11">
+      <c r="J13">
         <v>157</v>
       </c>
-      <c r="J11">
+      <c r="K13">
         <v>1347</v>
       </c>
-      <c r="K11">
+      <c r="L13">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="N13">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="O13">
         <v>110</v>
       </c>
-      <c r="O11">
+      <c r="P13">
         <v>285</v>
       </c>
-      <c r="P11">
+      <c r="Q13">
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C14">
         <v>60</v>
       </c>
-      <c r="C12">
+      <c r="D14">
         <v>216</v>
       </c>
-      <c r="D12">
+      <c r="E14">
         <v>331</v>
       </c>
-      <c r="E12">
+      <c r="F14">
         <v>89</v>
       </c>
-      <c r="F12">
+      <c r="G14">
         <v>270</v>
       </c>
-      <c r="G12">
+      <c r="H14">
         <v>558</v>
       </c>
-      <c r="H12">
+      <c r="I14">
         <v>35</v>
       </c>
-      <c r="I12">
+      <c r="J14">
         <v>164</v>
       </c>
-      <c r="J12">
+      <c r="K14">
         <v>1376</v>
       </c>
-      <c r="K12">
+      <c r="L14">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="M14">
         <v>9</v>
       </c>
-      <c r="M12">
+      <c r="N14">
         <v>13</v>
       </c>
-      <c r="N12">
+      <c r="O14">
         <v>120</v>
       </c>
-      <c r="O12">
+      <c r="P14">
         <v>312</v>
       </c>
-      <c r="P12">
+      <c r="Q14">
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C15">
         <v>66</v>
       </c>
-      <c r="C13">
+      <c r="D15">
         <v>228</v>
       </c>
-      <c r="D13">
+      <c r="E15">
         <v>349</v>
       </c>
-      <c r="E13">
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="G15">
         <v>288</v>
       </c>
-      <c r="G13">
+      <c r="H15">
         <v>596</v>
       </c>
-      <c r="H13">
+      <c r="I15">
         <v>36</v>
       </c>
-      <c r="I13">
+      <c r="J15">
         <v>171</v>
       </c>
-      <c r="J13">
+      <c r="K15">
         <v>1407</v>
       </c>
-      <c r="K13">
+      <c r="L15">
         <v>8</v>
       </c>
-      <c r="L13">
+      <c r="M15">
         <v>11</v>
       </c>
-      <c r="M13">
+      <c r="N15">
         <v>15</v>
       </c>
-      <c r="N13">
+      <c r="O15">
         <v>130</v>
       </c>
-      <c r="O13">
+      <c r="P15">
         <v>338</v>
       </c>
-      <c r="P13">
+      <c r="Q15">
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C16">
         <v>72</v>
       </c>
-      <c r="C14">
+      <c r="D16">
         <v>240</v>
       </c>
-      <c r="D14">
+      <c r="E16">
         <v>366</v>
       </c>
-      <c r="E14">
+      <c r="F16">
         <v>111</v>
       </c>
-      <c r="F14">
+      <c r="G16">
         <v>306</v>
       </c>
-      <c r="G14">
+      <c r="H16">
         <v>634</v>
       </c>
-      <c r="H14">
+      <c r="I16">
         <v>40</v>
       </c>
-      <c r="I14">
+      <c r="J16">
         <v>177</v>
       </c>
-      <c r="J14">
+      <c r="K16">
         <v>1436</v>
       </c>
-      <c r="K14">
+      <c r="L16">
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="M16">
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="N14">
+      <c r="O16">
         <v>140</v>
       </c>
-      <c r="O14">
+      <c r="P16">
         <v>363</v>
       </c>
-      <c r="P14">
+      <c r="Q16">
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C17">
         <v>78</v>
       </c>
-      <c r="C15">
+      <c r="D17">
         <v>252</v>
       </c>
-      <c r="D15">
+      <c r="E17">
         <v>384</v>
       </c>
-      <c r="E15">
+      <c r="F17">
         <v>122</v>
       </c>
-      <c r="F15">
+      <c r="G17">
         <v>324</v>
       </c>
-      <c r="G15">
+      <c r="H17">
         <v>672</v>
       </c>
-      <c r="H15">
+      <c r="I17">
         <v>44</v>
       </c>
-      <c r="I15">
+      <c r="J17">
         <v>184</v>
       </c>
-      <c r="J15">
+      <c r="K17">
         <v>1467</v>
       </c>
-      <c r="K15">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="M17">
         <v>12</v>
       </c>
-      <c r="M15">
+      <c r="N17">
         <v>17</v>
       </c>
-      <c r="N15">
+      <c r="O17">
         <v>154</v>
       </c>
-      <c r="O15">
+      <c r="P17">
         <v>401</v>
       </c>
-      <c r="P15">
+      <c r="Q17">
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C18">
         <v>84</v>
       </c>
-      <c r="C16">
+      <c r="D18">
         <v>264</v>
       </c>
-      <c r="D16">
+      <c r="E18">
         <v>402</v>
       </c>
-      <c r="E16">
+      <c r="F18">
         <v>133</v>
       </c>
-      <c r="F16">
+      <c r="G18">
         <v>342</v>
       </c>
-      <c r="G16">
+      <c r="H18">
         <v>710</v>
       </c>
-      <c r="H16">
+      <c r="I18">
         <v>48</v>
       </c>
-      <c r="I16">
+      <c r="J18">
         <v>189</v>
       </c>
-      <c r="J16">
+      <c r="K18">
         <v>1496</v>
       </c>
-      <c r="K16">
+      <c r="L18">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="M18">
         <v>13</v>
       </c>
-      <c r="M16">
+      <c r="N18">
         <v>19</v>
       </c>
-      <c r="N16">
+      <c r="O18">
         <v>169</v>
       </c>
-      <c r="O16">
+      <c r="P18">
         <v>440</v>
       </c>
-      <c r="P16">
+      <c r="Q18">
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C19">
         <v>90</v>
       </c>
-      <c r="C17">
+      <c r="D19">
         <v>276</v>
       </c>
-      <c r="D17">
+      <c r="E19">
         <v>419</v>
       </c>
-      <c r="E17">
+      <c r="F19">
         <v>144</v>
       </c>
-      <c r="F17">
+      <c r="G19">
         <v>360</v>
       </c>
-      <c r="G17">
+      <c r="H19">
         <v>748</v>
       </c>
-      <c r="H17">
+      <c r="I19">
         <v>52</v>
       </c>
-      <c r="I17">
+      <c r="J19">
         <v>196</v>
       </c>
-      <c r="J17">
+      <c r="K19">
         <v>1527</v>
       </c>
-      <c r="K17">
+      <c r="L19">
         <v>10</v>
       </c>
-      <c r="L17">
+      <c r="M19">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="N19">
         <v>19</v>
       </c>
-      <c r="N17">
+      <c r="O19">
         <v>186</v>
       </c>
-      <c r="O17">
+      <c r="P19">
         <v>482</v>
       </c>
-      <c r="P17">
+      <c r="Q19">
         <v>723</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C20">
         <v>96</v>
       </c>
-      <c r="C18">
+      <c r="D20">
         <v>288</v>
       </c>
-      <c r="D18">
+      <c r="E20">
         <v>437</v>
       </c>
-      <c r="E18">
+      <c r="F20">
         <v>155</v>
       </c>
-      <c r="F18">
+      <c r="G20">
         <v>378</v>
       </c>
-      <c r="G18">
+      <c r="H20">
         <v>786</v>
       </c>
-      <c r="H18">
+      <c r="I20">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="J20">
         <v>203</v>
       </c>
-      <c r="J18">
+      <c r="K20">
         <v>1556</v>
       </c>
-      <c r="K18">
+      <c r="L20">
         <v>11</v>
       </c>
-      <c r="L18">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="M18">
+      <c r="N20">
         <v>20</v>
       </c>
-      <c r="N18">
+      <c r="O20">
         <v>205</v>
       </c>
-      <c r="O18">
+      <c r="P20">
         <v>533</v>
       </c>
-      <c r="P18">
+      <c r="Q20">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="C21">
         <v>102</v>
       </c>
-      <c r="C19">
+      <c r="D21">
         <v>300</v>
       </c>
-      <c r="D19">
+      <c r="E21">
         <v>454</v>
       </c>
-      <c r="E19">
+      <c r="F21">
         <v>166</v>
       </c>
-      <c r="F19">
+      <c r="G21">
         <v>396</v>
       </c>
-      <c r="G19">
+      <c r="H21">
         <v>824</v>
       </c>
-      <c r="H19">
+      <c r="I21">
         <v>60</v>
       </c>
-      <c r="I19">
+      <c r="J21">
         <v>209</v>
       </c>
-      <c r="J19">
+      <c r="K21">
         <v>1587</v>
       </c>
-      <c r="K19">
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="M21">
         <v>15</v>
       </c>
-      <c r="M19">
+      <c r="N21">
         <v>20</v>
       </c>
-      <c r="N19">
+      <c r="O21">
         <v>225</v>
       </c>
-      <c r="O19">
+      <c r="P21">
         <v>584</v>
       </c>
-      <c r="P19">
+      <c r="Q21">
         <v>876</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C22">
         <v>108</v>
       </c>
-      <c r="C20">
+      <c r="D22">
         <v>312</v>
       </c>
-      <c r="D20">
+      <c r="E22">
         <v>472</v>
       </c>
-      <c r="E20">
+      <c r="F22">
         <v>177</v>
       </c>
-      <c r="F20">
+      <c r="G22">
         <v>414</v>
       </c>
-      <c r="G20">
+      <c r="H22">
         <v>862</v>
       </c>
-      <c r="H20">
+      <c r="I22">
         <v>64</v>
       </c>
-      <c r="I20">
+      <c r="J22">
         <v>216</v>
       </c>
-      <c r="J20">
+      <c r="K22">
         <v>1616</v>
       </c>
-      <c r="K20">
+      <c r="L22">
         <v>12</v>
       </c>
-      <c r="L20">
+      <c r="M22">
         <v>16</v>
       </c>
-      <c r="M20">
+      <c r="N22">
         <v>22</v>
       </c>
-      <c r="N20">
+      <c r="O22">
         <v>248</v>
       </c>
-      <c r="O20">
+      <c r="P22">
         <v>644</v>
       </c>
-      <c r="P20">
+      <c r="Q22">
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C23">
         <v>114</v>
       </c>
-      <c r="C21">
+      <c r="D23">
         <v>324</v>
       </c>
-      <c r="D21">
+      <c r="E23">
         <v>490</v>
       </c>
-      <c r="E21">
+      <c r="F23">
         <v>188</v>
       </c>
-      <c r="F21">
+      <c r="G23">
         <v>432</v>
       </c>
-      <c r="G21">
+      <c r="H23">
         <v>900</v>
       </c>
-      <c r="H21">
+      <c r="I23">
         <v>68</v>
       </c>
-      <c r="I21">
+      <c r="J23">
         <v>221</v>
       </c>
-      <c r="J21">
+      <c r="K23">
         <v>1647</v>
       </c>
-      <c r="K21">
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="L21">
+      <c r="M23">
         <v>17</v>
       </c>
-      <c r="M21">
+      <c r="N23">
         <v>24</v>
       </c>
-      <c r="N21">
+      <c r="O23">
         <v>273</v>
       </c>
-      <c r="O21">
+      <c r="P23">
         <v>708</v>
       </c>
-      <c r="P21">
+      <c r="Q23">
         <v>1062</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C24">
         <v>120</v>
       </c>
-      <c r="C22">
+      <c r="D24">
         <v>336</v>
       </c>
-      <c r="D22">
+      <c r="E24">
         <v>507</v>
       </c>
-      <c r="E22">
+      <c r="F24">
         <v>199</v>
       </c>
-      <c r="F22">
+      <c r="G24">
         <v>450</v>
       </c>
-      <c r="G22">
+      <c r="H24">
         <v>938</v>
       </c>
-      <c r="H22">
+      <c r="I24">
         <v>73</v>
       </c>
-      <c r="I22">
+      <c r="J24">
         <v>228</v>
       </c>
-      <c r="J22">
+      <c r="K24">
         <v>1676</v>
       </c>
-      <c r="K22">
+      <c r="L24">
         <v>13</v>
       </c>
-      <c r="L22">
+      <c r="M24">
         <v>17</v>
       </c>
-      <c r="M22">
+      <c r="N24">
         <v>24</v>
       </c>
-      <c r="N22">
+      <c r="O24">
         <v>300</v>
       </c>
-      <c r="O22">
+      <c r="P24">
         <v>779</v>
       </c>
-      <c r="P22">
+      <c r="Q24">
         <v>1169</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C25">
         <v>126</v>
       </c>
-      <c r="C23">
+      <c r="D25">
         <v>348</v>
       </c>
-      <c r="D23">
+      <c r="E25">
         <v>525</v>
       </c>
-      <c r="E23">
+      <c r="F25">
         <v>210</v>
       </c>
-      <c r="F23">
+      <c r="G25">
         <v>468</v>
       </c>
-      <c r="G23">
+      <c r="H25">
         <v>976</v>
       </c>
-      <c r="H23">
+      <c r="I25">
         <v>78</v>
       </c>
-      <c r="I23">
+      <c r="J25">
         <v>236</v>
       </c>
-      <c r="J23">
+      <c r="K25">
         <v>1707</v>
       </c>
-      <c r="K23">
+      <c r="L25">
         <v>14</v>
       </c>
-      <c r="L23">
+      <c r="M25">
         <v>19</v>
       </c>
-      <c r="M23">
+      <c r="N25">
         <v>26</v>
       </c>
-      <c r="N23">
+      <c r="O25">
         <v>330</v>
       </c>
-      <c r="O23">
+      <c r="P25">
         <v>857</v>
       </c>
-      <c r="P23">
+      <c r="Q25">
         <v>1286</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C26">
         <v>132</v>
       </c>
-      <c r="C24">
+      <c r="D26">
         <v>360</v>
       </c>
-      <c r="D24">
+      <c r="E26">
         <v>542</v>
       </c>
-      <c r="E24">
+      <c r="F26">
         <v>221</v>
       </c>
-      <c r="F24">
+      <c r="G26">
         <v>486</v>
       </c>
-      <c r="G24">
+      <c r="H26">
         <v>1014</v>
       </c>
-      <c r="H24">
+      <c r="I26">
         <v>84</v>
       </c>
-      <c r="I24">
+      <c r="J26">
         <v>243</v>
       </c>
-      <c r="J24">
+      <c r="K26">
         <v>1736</v>
       </c>
-      <c r="K24">
+      <c r="L26">
         <v>14</v>
       </c>
-      <c r="L24">
+      <c r="M26">
         <v>19</v>
       </c>
-      <c r="M24">
+      <c r="N26">
         <v>26</v>
       </c>
-      <c r="N24">
+      <c r="O26">
         <v>363</v>
       </c>
-      <c r="O24">
+      <c r="P26">
         <v>942</v>
       </c>
-      <c r="P24">
+      <c r="Q26">
         <v>1413</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C27">
         <v>138</v>
       </c>
-      <c r="C25">
+      <c r="D27">
         <v>372</v>
       </c>
-      <c r="D25">
+      <c r="E27">
         <v>560</v>
       </c>
-      <c r="E25">
+      <c r="F27">
         <v>232</v>
       </c>
-      <c r="F25">
+      <c r="G27">
         <v>504</v>
       </c>
-      <c r="G25">
+      <c r="H27">
         <v>1052</v>
       </c>
-      <c r="H25">
+      <c r="I27">
         <v>89</v>
       </c>
-      <c r="I25">
+      <c r="J27">
         <v>248</v>
       </c>
-      <c r="J25">
+      <c r="K27">
         <v>1767</v>
       </c>
-      <c r="K25">
+      <c r="L27">
         <v>15</v>
       </c>
-      <c r="L25">
+      <c r="M27">
         <v>20</v>
       </c>
-      <c r="M25">
+      <c r="N27">
         <v>28</v>
       </c>
-      <c r="N25">
+      <c r="O27">
         <v>399</v>
       </c>
-      <c r="O25">
+      <c r="P27">
         <v>1035</v>
       </c>
-      <c r="P25">
+      <c r="Q27">
         <v>1553</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C28">
         <v>144</v>
       </c>
-      <c r="C26">
+      <c r="D28">
         <v>384</v>
       </c>
-      <c r="D26">
+      <c r="E28">
         <v>578</v>
       </c>
-      <c r="E26">
+      <c r="F28">
         <v>243</v>
       </c>
-      <c r="F26">
+      <c r="G28">
         <v>522</v>
       </c>
-      <c r="G26">
+      <c r="H28">
         <v>1090</v>
       </c>
-      <c r="H26">
+      <c r="I28">
         <v>94</v>
       </c>
-      <c r="I26">
+      <c r="J28">
         <v>255</v>
       </c>
-      <c r="J26">
+      <c r="K28">
         <v>1796</v>
       </c>
-      <c r="K26">
+      <c r="L28">
         <v>16</v>
       </c>
-      <c r="L26">
+      <c r="M28">
         <v>21</v>
       </c>
-      <c r="M26">
+      <c r="N28">
         <v>30</v>
       </c>
-      <c r="N26">
+      <c r="O28">
         <v>439</v>
       </c>
-      <c r="O26">
+      <c r="P28">
         <v>1139</v>
       </c>
-      <c r="P26">
+      <c r="Q28">
         <v>1709</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C29">
         <v>150</v>
       </c>
-      <c r="C27">
+      <c r="D29">
         <v>396</v>
       </c>
-      <c r="D27">
+      <c r="E29">
         <v>595</v>
       </c>
-      <c r="E27">
+      <c r="F29">
         <v>254</v>
       </c>
-      <c r="F27">
+      <c r="G29">
         <v>540</v>
       </c>
-      <c r="G27">
+      <c r="H29">
         <v>1128</v>
       </c>
-      <c r="H27">
+      <c r="I29">
         <v>100</v>
       </c>
-      <c r="I27">
+      <c r="J29">
         <v>261</v>
       </c>
-      <c r="J27">
+      <c r="K29">
         <v>1827</v>
       </c>
-      <c r="K27">
+      <c r="L29">
         <v>16</v>
       </c>
-      <c r="L27">
+      <c r="M29">
         <v>21</v>
       </c>
-      <c r="M27">
+      <c r="N29">
         <v>30</v>
       </c>
-      <c r="N27">
+      <c r="O29">
         <v>470</v>
       </c>
-      <c r="O27">
+      <c r="P29">
         <v>1220</v>
       </c>
-      <c r="P27">
+      <c r="Q29">
         <v>1830</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="C30">
         <v>156</v>
       </c>
-      <c r="C28">
+      <c r="D30">
         <v>408</v>
       </c>
-      <c r="D28">
+      <c r="E30">
         <v>613</v>
       </c>
-      <c r="E28">
+      <c r="F30">
         <v>265</v>
       </c>
-      <c r="F28">
+      <c r="G30">
         <v>558</v>
       </c>
-      <c r="G28">
+      <c r="H30">
         <v>1166</v>
       </c>
-      <c r="H28">
+      <c r="I30">
         <v>106</v>
       </c>
-      <c r="I28">
+      <c r="J30">
         <v>268</v>
       </c>
-      <c r="J28">
+      <c r="K30">
         <v>1856</v>
       </c>
-      <c r="K28">
+      <c r="L30">
         <v>17</v>
       </c>
-      <c r="L28">
+      <c r="M30">
         <v>23</v>
       </c>
-      <c r="M28">
+      <c r="N30">
         <v>31</v>
       </c>
-      <c r="N28">
+      <c r="O30">
         <v>503</v>
       </c>
-      <c r="O28">
+      <c r="P30">
         <v>1305</v>
       </c>
-      <c r="P28">
+      <c r="Q30">
         <v>1958</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="C31">
         <v>162</v>
       </c>
-      <c r="C29">
+      <c r="D31">
         <v>420</v>
       </c>
-      <c r="D29">
+      <c r="E31">
         <v>630</v>
       </c>
-      <c r="E29">
+      <c r="F31">
         <v>276</v>
       </c>
-      <c r="F29">
+      <c r="G31">
         <v>576</v>
       </c>
-      <c r="G29">
+      <c r="H31">
         <v>1204</v>
       </c>
-      <c r="H29">
+      <c r="I31">
         <v>113</v>
       </c>
-      <c r="I29">
+      <c r="J31">
         <v>275</v>
       </c>
-      <c r="J29">
+      <c r="K31">
         <v>1887</v>
       </c>
-      <c r="K29">
+      <c r="L31">
         <v>17</v>
       </c>
-      <c r="L29">
+      <c r="M31">
         <v>23</v>
       </c>
-      <c r="M29">
+      <c r="N31">
         <v>31</v>
       </c>
-      <c r="N29">
+      <c r="O31">
         <v>538</v>
       </c>
-      <c r="O29">
+      <c r="P31">
         <v>1397</v>
       </c>
-      <c r="P29">
+      <c r="Q31">
         <v>2096</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="C32">
         <v>168</v>
       </c>
-      <c r="C30">
+      <c r="D32">
         <v>432</v>
       </c>
-      <c r="D30">
+      <c r="E32">
         <v>648</v>
       </c>
-      <c r="E30">
+      <c r="F32">
         <v>287</v>
       </c>
-      <c r="F30">
+      <c r="G32">
         <v>594</v>
       </c>
-      <c r="G30">
+      <c r="H32">
         <v>1242</v>
       </c>
-      <c r="H30">
+      <c r="I32">
         <v>120</v>
       </c>
-      <c r="I30">
+      <c r="J32">
         <v>280</v>
       </c>
-      <c r="J30">
+      <c r="K32">
         <v>1916</v>
       </c>
-      <c r="K30">
+      <c r="L32">
         <v>18</v>
       </c>
-      <c r="L30">
+      <c r="M32">
         <v>24</v>
       </c>
-      <c r="M30">
+      <c r="N32">
         <v>33</v>
       </c>
-      <c r="N30">
+      <c r="O32">
         <v>576</v>
       </c>
-      <c r="O30">
+      <c r="P32">
         <v>1494</v>
       </c>
-      <c r="P30">
+      <c r="Q32">
         <v>2241</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="C33">
         <v>174</v>
       </c>
-      <c r="C31">
+      <c r="D33">
         <v>444</v>
       </c>
-      <c r="D31">
+      <c r="E33">
         <v>666</v>
       </c>
-      <c r="E31">
+      <c r="F33">
         <v>298</v>
       </c>
-      <c r="F31">
+      <c r="G33">
         <v>612</v>
       </c>
-      <c r="G31">
+      <c r="H33">
         <v>1280</v>
       </c>
-      <c r="H31">
+      <c r="I33">
         <v>126</v>
       </c>
-      <c r="I31">
+      <c r="J33">
         <v>287</v>
       </c>
-      <c r="J31">
+      <c r="K33">
         <v>1947</v>
       </c>
-      <c r="K31">
+      <c r="L33">
         <v>19</v>
       </c>
-      <c r="L31">
+      <c r="M33">
         <v>25</v>
       </c>
-      <c r="M31">
+      <c r="N33">
         <v>35</v>
       </c>
-      <c r="N31">
+      <c r="O33">
         <v>616</v>
       </c>
-      <c r="O31">
+      <c r="P33">
         <v>1598</v>
       </c>
-      <c r="P31">
+      <c r="Q33">
         <v>2397</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="C34">
         <v>180</v>
       </c>
-      <c r="C32">
+      <c r="D34">
         <v>456</v>
       </c>
-      <c r="D32">
+      <c r="E34">
         <v>683</v>
       </c>
-      <c r="E32">
+      <c r="F34">
         <v>309</v>
       </c>
-      <c r="F32">
+      <c r="G34">
         <v>630</v>
       </c>
-      <c r="G32">
+      <c r="H34">
         <v>1318</v>
       </c>
-      <c r="H32">
+      <c r="I34">
         <v>134</v>
       </c>
-      <c r="I32">
+      <c r="J34">
         <v>320</v>
       </c>
-      <c r="J32">
+      <c r="K34">
         <v>1976</v>
       </c>
-      <c r="K32">
+      <c r="L34">
         <v>19</v>
       </c>
-      <c r="L32">
+      <c r="M34">
         <v>25</v>
       </c>
-      <c r="M32">
+      <c r="N34">
         <v>35</v>
       </c>
-      <c r="N32">
+      <c r="O34">
         <v>659</v>
       </c>
-      <c r="O32">
+      <c r="P34">
         <v>1709</v>
       </c>
-      <c r="P32">
+      <c r="Q34">
         <v>2564</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="C35">
         <v>186</v>
       </c>
-      <c r="C33">
+      <c r="D35">
         <v>468</v>
       </c>
-      <c r="D33">
+      <c r="E35">
         <v>701</v>
       </c>
-      <c r="E33">
+      <c r="F35">
         <v>320</v>
       </c>
-      <c r="F33">
+      <c r="G35">
         <v>648</v>
       </c>
-      <c r="G33">
+      <c r="H35">
         <v>1356</v>
       </c>
-      <c r="H33">
+      <c r="I35">
         <v>142</v>
       </c>
-      <c r="I33">
+      <c r="J35">
         <v>355</v>
       </c>
-      <c r="J33">
+      <c r="K35">
         <v>2007</v>
       </c>
-      <c r="K33">
+      <c r="L35">
         <v>20</v>
       </c>
-      <c r="L33">
+      <c r="M35">
         <v>27</v>
       </c>
-      <c r="M33">
+      <c r="N35">
         <v>37</v>
       </c>
-      <c r="N33">
+      <c r="O35">
         <v>706</v>
       </c>
-      <c r="O33">
+      <c r="P35">
         <v>1832</v>
       </c>
-      <c r="P33">
+      <c r="Q35">
         <v>2748</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="C36">
         <v>192</v>
       </c>
-      <c r="C34">
+      <c r="D36">
         <v>480</v>
       </c>
-      <c r="D34">
+      <c r="E36">
         <v>718</v>
       </c>
-      <c r="E34">
+      <c r="F36">
         <v>331</v>
       </c>
-      <c r="F34">
+      <c r="G36">
         <v>666</v>
       </c>
-      <c r="G34">
+      <c r="H36">
         <v>1394</v>
       </c>
-      <c r="H34">
+      <c r="I36">
         <v>150</v>
       </c>
-      <c r="I34">
+      <c r="J36">
         <v>388</v>
       </c>
-      <c r="J34">
+      <c r="K36">
         <v>2036</v>
       </c>
-      <c r="K34">
+      <c r="L36">
         <v>20</v>
       </c>
-      <c r="L34">
+      <c r="M36">
         <v>27</v>
       </c>
-      <c r="M34">
+      <c r="N36">
         <v>37</v>
       </c>
-      <c r="N34">
+      <c r="O36">
         <v>755</v>
       </c>
-      <c r="O34">
+      <c r="P36">
         <v>1958</v>
       </c>
-      <c r="P34">
+      <c r="Q36">
         <v>2937</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="C37">
         <v>198</v>
       </c>
-      <c r="C35">
+      <c r="D37">
         <v>492</v>
       </c>
-      <c r="D35">
+      <c r="E37">
         <v>736</v>
       </c>
-      <c r="E35">
+      <c r="F37">
         <v>342</v>
       </c>
-      <c r="F35">
+      <c r="G37">
         <v>684</v>
       </c>
-      <c r="G35">
+      <c r="H37">
         <v>1432</v>
       </c>
-      <c r="H35">
+      <c r="I37">
         <v>158</v>
       </c>
-      <c r="I35">
+      <c r="J37">
         <v>423</v>
       </c>
-      <c r="J35">
+      <c r="K37">
         <v>2067</v>
       </c>
-      <c r="K35">
+      <c r="L37">
         <v>21</v>
       </c>
-      <c r="L35">
+      <c r="M37">
         <v>28</v>
       </c>
-      <c r="M35">
+      <c r="N37">
         <v>39</v>
       </c>
-      <c r="N35">
+      <c r="O37">
         <v>808</v>
       </c>
-      <c r="O35">
+      <c r="P37">
         <v>2097</v>
       </c>
-      <c r="P35">
+      <c r="Q37">
         <v>3146</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="C38">
         <v>204</v>
       </c>
-      <c r="C36">
+      <c r="D38">
         <v>504</v>
       </c>
-      <c r="D36">
+      <c r="E38">
         <v>754</v>
       </c>
-      <c r="E36">
+      <c r="F38">
         <v>353</v>
       </c>
-      <c r="F36">
+      <c r="G38">
         <v>702</v>
       </c>
-      <c r="G36">
+      <c r="H38">
         <v>1470</v>
       </c>
-      <c r="H36">
+      <c r="I38">
         <v>166</v>
       </c>
-      <c r="I36">
+      <c r="J38">
         <v>456</v>
       </c>
-      <c r="J36">
+      <c r="K38">
         <v>2096</v>
       </c>
-      <c r="K36">
+      <c r="L38">
         <v>22</v>
       </c>
-      <c r="L36">
+      <c r="M38">
         <v>29</v>
       </c>
-      <c r="M36">
+      <c r="N38">
         <v>41</v>
       </c>
-      <c r="N36">
+      <c r="O38">
         <v>864</v>
       </c>
-      <c r="O36">
+      <c r="P38">
         <v>2241</v>
       </c>
-      <c r="P36">
+      <c r="Q38">
         <v>3362</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="C39">
         <v>210</v>
       </c>
-      <c r="C37">
+      <c r="D39">
         <v>516</v>
       </c>
-      <c r="D37">
+      <c r="E39">
         <v>771</v>
       </c>
-      <c r="E37">
+      <c r="F39">
         <v>364</v>
       </c>
-      <c r="F37">
+      <c r="G39">
         <v>720</v>
       </c>
-      <c r="G37">
+      <c r="H39">
         <v>1508</v>
       </c>
-      <c r="H37">
+      <c r="I39">
         <v>174</v>
       </c>
-      <c r="I37">
+      <c r="J39">
         <v>491</v>
       </c>
-      <c r="J37">
+      <c r="K39">
         <v>2127</v>
       </c>
-      <c r="K37">
+      <c r="L39">
         <v>22</v>
       </c>
-      <c r="L37">
+      <c r="M39">
         <v>29</v>
       </c>
-      <c r="M37">
+      <c r="N39">
         <v>41</v>
       </c>
-      <c r="N37">
+      <c r="O39">
         <v>925</v>
       </c>
-      <c r="O37">
+      <c r="P39">
         <v>2399</v>
       </c>
-      <c r="P37">
+      <c r="Q39">
         <v>3599</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="C40">
         <v>216</v>
       </c>
-      <c r="C38">
+      <c r="D40">
         <v>528</v>
       </c>
-      <c r="D38">
+      <c r="E40">
         <v>789</v>
       </c>
-      <c r="E38">
+      <c r="F40">
         <v>375</v>
       </c>
-      <c r="F38">
+      <c r="G40">
         <v>738</v>
       </c>
-      <c r="G38">
+      <c r="H40">
         <v>1546</v>
       </c>
-      <c r="H38">
+      <c r="I40">
         <v>182</v>
       </c>
-      <c r="I38">
+      <c r="J40">
         <v>525</v>
       </c>
-      <c r="J38">
+      <c r="K40">
         <v>2156</v>
       </c>
-      <c r="K38">
+      <c r="L40">
         <v>23</v>
       </c>
-      <c r="L38">
+      <c r="M40">
         <v>31</v>
       </c>
-      <c r="M38">
+      <c r="N40">
         <v>43</v>
       </c>
-      <c r="N38">
+      <c r="O40">
         <v>990</v>
       </c>
-      <c r="O38">
+      <c r="P40">
         <v>2568</v>
       </c>
-      <c r="P38">
+      <c r="Q40">
         <v>3852</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="C41">
         <v>222</v>
       </c>
-      <c r="C39">
+      <c r="D41">
         <v>540</v>
       </c>
-      <c r="D39">
+      <c r="E41">
         <v>806</v>
       </c>
-      <c r="E39">
+      <c r="F41">
         <v>386</v>
       </c>
-      <c r="F39">
+      <c r="G41">
         <v>756</v>
       </c>
-      <c r="G39">
+      <c r="H41">
         <v>1584</v>
       </c>
-      <c r="H39">
+      <c r="I41">
         <v>190</v>
       </c>
-      <c r="I39">
+      <c r="J41">
         <v>559</v>
       </c>
-      <c r="J39">
+      <c r="K41">
         <v>2187</v>
       </c>
-      <c r="K39">
+      <c r="L41">
         <v>23</v>
       </c>
-      <c r="L39">
+      <c r="M41">
         <v>31</v>
       </c>
-      <c r="M39">
+      <c r="N41">
         <v>43</v>
       </c>
-      <c r="N39">
+      <c r="O41">
         <v>1059</v>
       </c>
-      <c r="O39">
+      <c r="P41">
         <v>2745</v>
       </c>
-      <c r="P39">
+      <c r="Q41">
         <v>4118</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="C42">
         <v>228</v>
       </c>
-      <c r="C40">
+      <c r="D42">
         <v>552</v>
       </c>
-      <c r="D40">
+      <c r="E42">
         <v>824</v>
       </c>
-      <c r="E40">
+      <c r="F42">
         <v>397</v>
       </c>
-      <c r="F40">
+      <c r="G42">
         <v>774</v>
       </c>
-      <c r="G40">
+      <c r="H42">
         <v>1622</v>
       </c>
-      <c r="H40">
+      <c r="I42">
         <v>198</v>
       </c>
-      <c r="I40">
+      <c r="J42">
         <v>593</v>
       </c>
-      <c r="J40">
+      <c r="K42">
         <v>2216</v>
       </c>
-      <c r="K40">
+      <c r="L42">
         <v>24</v>
       </c>
-      <c r="L40">
+      <c r="M42">
         <v>32</v>
       </c>
-      <c r="M40">
+      <c r="N42">
         <v>44</v>
       </c>
-      <c r="N40">
+      <c r="O42">
         <v>1133</v>
       </c>
-      <c r="O40">
+      <c r="P42">
         <v>2939</v>
       </c>
-      <c r="P40">
+      <c r="Q42">
         <v>4409</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="C43">
         <v>234</v>
       </c>
-      <c r="C41">
+      <c r="D43">
         <v>564</v>
       </c>
-      <c r="D41">
+      <c r="E43">
         <v>842</v>
       </c>
-      <c r="E41">
+      <c r="F43">
         <v>408</v>
       </c>
-      <c r="F41">
+      <c r="G43">
         <v>792</v>
       </c>
-      <c r="G41">
+      <c r="H43">
         <v>1660</v>
       </c>
-      <c r="H41">
+      <c r="I43">
         <v>206</v>
       </c>
-      <c r="I41">
+      <c r="J43">
         <v>627</v>
       </c>
-      <c r="J41">
+      <c r="K43">
         <v>2247</v>
       </c>
-      <c r="K41">
+      <c r="L43">
         <v>25</v>
       </c>
-      <c r="L41">
+      <c r="M43">
         <v>33</v>
       </c>
-      <c r="M41">
+      <c r="N43">
         <v>46</v>
       </c>
-      <c r="N41">
+      <c r="O43">
         <v>1212</v>
       </c>
-      <c r="O41">
+      <c r="P43">
         <v>3144</v>
       </c>
-      <c r="P41">
+      <c r="Q43">
         <v>4716</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="C44">
         <v>240</v>
       </c>
-      <c r="C42">
+      <c r="D44">
         <v>576</v>
       </c>
-      <c r="D42">
+      <c r="E44">
         <v>859</v>
       </c>
-      <c r="E42">
+      <c r="F44">
         <v>419</v>
       </c>
-      <c r="F42">
+      <c r="G44">
         <v>810</v>
       </c>
-      <c r="G42">
+      <c r="H44">
         <v>1698</v>
       </c>
-      <c r="H42">
+      <c r="I44">
         <v>215</v>
       </c>
-      <c r="I42">
+      <c r="J44">
         <v>661</v>
       </c>
-      <c r="J42">
+      <c r="K44">
         <v>2276</v>
       </c>
-      <c r="K42">
+      <c r="L44">
         <v>25</v>
       </c>
-      <c r="L42">
+      <c r="M44">
         <v>33</v>
       </c>
-      <c r="M42">
+      <c r="N44">
         <v>46</v>
       </c>
-      <c r="N42">
+      <c r="O44">
         <v>1297</v>
       </c>
-      <c r="O42">
+      <c r="P44">
         <v>3365</v>
       </c>
-      <c r="P42">
+      <c r="Q44">
         <v>5048</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="C45">
         <v>246</v>
       </c>
-      <c r="C43">
+      <c r="D45">
         <v>588</v>
       </c>
-      <c r="D43">
+      <c r="E45">
         <v>877</v>
       </c>
-      <c r="E43">
+      <c r="F45">
         <v>430</v>
       </c>
-      <c r="F43">
+      <c r="G45">
         <v>828</v>
       </c>
-      <c r="G43">
+      <c r="H45">
         <v>1736</v>
       </c>
-      <c r="H43">
+      <c r="I45">
         <v>225</v>
       </c>
-      <c r="I43">
+      <c r="J45">
         <v>696</v>
       </c>
-      <c r="J43">
+      <c r="K45">
         <v>2307</v>
       </c>
-      <c r="K43">
+      <c r="L45">
         <v>26</v>
       </c>
-      <c r="L43">
+      <c r="M45">
         <v>35</v>
       </c>
-      <c r="M43">
+      <c r="N45">
         <v>48</v>
       </c>
-      <c r="N43">
+      <c r="O45">
         <v>1388</v>
       </c>
-      <c r="O43">
+      <c r="P45">
         <v>3600</v>
       </c>
-      <c r="P43">
+      <c r="Q45">
         <v>5400</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="C46">
         <v>252</v>
       </c>
-      <c r="C44">
+      <c r="D46">
         <v>600</v>
       </c>
-      <c r="D44">
+      <c r="E46">
         <v>894</v>
       </c>
-      <c r="E44">
+      <c r="F46">
         <v>441</v>
       </c>
-      <c r="F44">
+      <c r="G46">
         <v>846</v>
       </c>
-      <c r="G44">
+      <c r="H46">
         <v>1774</v>
       </c>
-      <c r="H44">
+      <c r="I46">
         <v>234</v>
       </c>
-      <c r="I44">
+      <c r="J46">
         <v>729</v>
       </c>
-      <c r="J44">
+      <c r="K46">
         <v>2336</v>
       </c>
-      <c r="K44">
+      <c r="L46">
         <v>26</v>
       </c>
-      <c r="L44">
+      <c r="M46">
         <v>35</v>
       </c>
-      <c r="M44">
+      <c r="N46">
         <v>48</v>
       </c>
-      <c r="N44">
+      <c r="O46">
         <v>1485</v>
       </c>
-      <c r="O44">
+      <c r="P46">
         <v>3852</v>
       </c>
-      <c r="P44">
+      <c r="Q46">
         <v>5778</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="C47">
         <v>258</v>
       </c>
-      <c r="C45">
+      <c r="D47">
         <v>612</v>
       </c>
-      <c r="D45">
+      <c r="E47">
         <v>912</v>
       </c>
-      <c r="E45">
+      <c r="F47">
         <v>452</v>
       </c>
-      <c r="F45">
+      <c r="G47">
         <v>864</v>
       </c>
-      <c r="G45">
+      <c r="H47">
         <v>1812</v>
       </c>
-      <c r="H45">
+      <c r="I47">
         <v>243</v>
       </c>
-      <c r="I45">
+      <c r="J47">
         <v>764</v>
       </c>
-      <c r="J45">
+      <c r="K47">
         <v>2367</v>
       </c>
-      <c r="K45">
+      <c r="L47">
         <v>27</v>
       </c>
-      <c r="L45">
+      <c r="M47">
         <v>36</v>
       </c>
-      <c r="M45">
+      <c r="N47">
         <v>50</v>
       </c>
-      <c r="N45">
+      <c r="O47">
         <v>1589</v>
       </c>
-      <c r="O45">
+      <c r="P47">
         <v>4121</v>
       </c>
-      <c r="P45">
+      <c r="Q47">
         <v>6182</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="C48">
         <v>264</v>
       </c>
-      <c r="C46">
+      <c r="D48">
         <v>624</v>
       </c>
-      <c r="D46">
+      <c r="E48">
         <v>930</v>
       </c>
-      <c r="E46">
+      <c r="F48">
         <v>463</v>
       </c>
-      <c r="F46">
+      <c r="G48">
         <v>882</v>
       </c>
-      <c r="G46">
+      <c r="H48">
         <v>1850</v>
       </c>
-      <c r="H46">
+      <c r="I48">
         <v>253</v>
       </c>
-      <c r="I46">
+      <c r="J48">
         <v>797</v>
       </c>
-      <c r="J46">
+      <c r="K48">
         <v>2396</v>
       </c>
-      <c r="K46">
+      <c r="L48">
         <v>28</v>
       </c>
-      <c r="L46">
+      <c r="M48">
         <v>37</v>
       </c>
-      <c r="M46">
+      <c r="N48">
         <v>52</v>
       </c>
-      <c r="N46">
+      <c r="O48">
         <v>1693</v>
       </c>
-      <c r="O46">
+      <c r="P48">
         <v>4409</v>
       </c>
-      <c r="P46">
+      <c r="Q48">
         <v>6614</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="C49">
         <v>270</v>
       </c>
-      <c r="C47">
+      <c r="D49">
         <v>636</v>
       </c>
-      <c r="D47">
+      <c r="E49">
         <v>947</v>
       </c>
-      <c r="E47">
+      <c r="F49">
         <v>474</v>
       </c>
-      <c r="F47">
+      <c r="G49">
         <v>900</v>
       </c>
-      <c r="G47">
+      <c r="H49">
         <v>1888</v>
       </c>
-      <c r="H47">
+      <c r="I49">
         <v>262</v>
       </c>
-      <c r="I47">
+      <c r="J49">
         <v>832</v>
       </c>
-      <c r="J47">
+      <c r="K49">
         <v>2427</v>
       </c>
-      <c r="K47">
+      <c r="L49">
         <v>28</v>
       </c>
-      <c r="L47">
+      <c r="M49">
         <v>37</v>
       </c>
-      <c r="M47">
+      <c r="N49">
         <v>52</v>
       </c>
-      <c r="N47">
+      <c r="O49">
         <v>1797</v>
       </c>
-      <c r="O47">
+      <c r="P49">
         <v>4718</v>
       </c>
-      <c r="P47">
+      <c r="Q49">
         <v>7077</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="C50">
         <v>276</v>
       </c>
-      <c r="C48">
+      <c r="D50">
         <v>648</v>
       </c>
-      <c r="D48">
+      <c r="E50">
         <v>965</v>
       </c>
-      <c r="E48">
+      <c r="F50">
         <v>485</v>
       </c>
-      <c r="F48">
+      <c r="G50">
         <v>918</v>
       </c>
-      <c r="G48">
+      <c r="H50">
         <v>1926</v>
       </c>
-      <c r="H48">
+      <c r="I50">
         <v>271</v>
       </c>
-      <c r="I48">
+      <c r="J50">
         <v>867</v>
       </c>
-      <c r="J48">
+      <c r="K50">
         <v>2456</v>
       </c>
-      <c r="K48">
+      <c r="L50">
         <v>29</v>
       </c>
-      <c r="L48">
+      <c r="M50">
         <v>39</v>
       </c>
-      <c r="M48">
+      <c r="N50">
         <v>54</v>
       </c>
-      <c r="N48">
+      <c r="O50">
         <v>1901</v>
       </c>
-      <c r="O48">
+      <c r="P50">
         <v>5051</v>
       </c>
-      <c r="P48">
+      <c r="Q50">
         <v>7577</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="C51">
         <v>282</v>
       </c>
-      <c r="C49">
+      <c r="D51">
         <v>660</v>
       </c>
-      <c r="D49">
+      <c r="E51">
         <v>982</v>
       </c>
-      <c r="E49">
+      <c r="F51">
         <v>496</v>
       </c>
-      <c r="F49">
+      <c r="G51">
         <v>936</v>
       </c>
-      <c r="G49">
+      <c r="H51">
         <v>1964</v>
       </c>
-      <c r="H49">
+      <c r="I51">
         <v>281</v>
       </c>
-      <c r="I49">
+      <c r="J51">
         <v>900</v>
       </c>
-      <c r="J49">
+      <c r="K51">
         <v>2487</v>
       </c>
-      <c r="K49">
+      <c r="L51">
         <v>29</v>
       </c>
-      <c r="L49">
+      <c r="M51">
         <v>39</v>
       </c>
-      <c r="M49">
+      <c r="N51">
         <v>54</v>
       </c>
-      <c r="N49">
+      <c r="O51">
         <v>2005</v>
       </c>
-      <c r="O49">
+      <c r="P51">
         <v>5402</v>
       </c>
-      <c r="P49">
+      <c r="Q51">
         <v>8103</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="C52">
         <v>288</v>
       </c>
-      <c r="C50">
+      <c r="D52">
         <v>672</v>
       </c>
-      <c r="D50">
+      <c r="E52">
         <v>1000</v>
       </c>
-      <c r="E50">
+      <c r="F52">
         <v>507</v>
       </c>
-      <c r="F50">
+      <c r="G52">
         <v>954</v>
       </c>
-      <c r="G50">
+      <c r="H52">
         <v>2002</v>
       </c>
-      <c r="H50">
+      <c r="I52">
         <v>290</v>
       </c>
-      <c r="I50">
+      <c r="J52">
         <v>935</v>
       </c>
-      <c r="J50">
+      <c r="K52">
         <v>2516</v>
       </c>
-      <c r="K50">
+      <c r="L52">
         <v>30</v>
       </c>
-      <c r="L50">
+      <c r="M52">
         <v>40</v>
       </c>
-      <c r="M50">
+      <c r="N52">
         <v>56</v>
       </c>
-      <c r="N50">
+      <c r="O52">
         <v>2109</v>
       </c>
-      <c r="O50">
+      <c r="P52">
         <v>5783</v>
       </c>
-      <c r="P50">
+      <c r="Q52">
         <v>8675</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="C53">
         <v>294</v>
       </c>
-      <c r="C51">
+      <c r="D53">
         <v>684</v>
       </c>
-      <c r="D51">
+      <c r="E53">
         <v>1018</v>
       </c>
-      <c r="E51">
+      <c r="F53">
         <v>518</v>
       </c>
-      <c r="F51">
+      <c r="G53">
         <v>972</v>
       </c>
-      <c r="G51">
+      <c r="H53">
         <v>2040</v>
       </c>
-      <c r="H51">
+      <c r="I53">
         <v>299</v>
       </c>
-      <c r="I51">
+      <c r="J53">
         <v>968</v>
       </c>
-      <c r="J51">
+      <c r="K53">
         <v>2547</v>
       </c>
-      <c r="K51">
+      <c r="L53">
         <v>31</v>
       </c>
-      <c r="L51">
+      <c r="M53">
         <v>41</v>
       </c>
-      <c r="M51">
+      <c r="N53">
         <v>57</v>
       </c>
-      <c r="N51">
+      <c r="O53">
         <v>2213</v>
       </c>
-      <c r="O51">
+      <c r="P53">
         <v>6186</v>
       </c>
-      <c r="P51">
+      <c r="Q53">
         <v>9279</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="C54">
         <v>300</v>
       </c>
-      <c r="C52">
+      <c r="D54">
         <v>696</v>
       </c>
-      <c r="D52">
+      <c r="E54">
         <v>1035</v>
       </c>
-      <c r="E52">
+      <c r="F54">
         <v>529</v>
       </c>
-      <c r="F52">
+      <c r="G54">
         <v>990</v>
       </c>
-      <c r="G52">
+      <c r="H54">
         <v>2078</v>
       </c>
-      <c r="H52">
+      <c r="I54">
         <v>310</v>
       </c>
-      <c r="I52">
+      <c r="J54">
         <v>1003</v>
       </c>
-      <c r="J52">
+      <c r="K54">
         <v>2576</v>
       </c>
-      <c r="K52">
+      <c r="L54">
         <v>31</v>
       </c>
-      <c r="L52">
+      <c r="M54">
         <v>41</v>
       </c>
-      <c r="M52">
+      <c r="N54">
         <v>57</v>
       </c>
-      <c r="N52">
+      <c r="O54">
         <v>2317</v>
       </c>
-      <c r="O52">
+      <c r="P54">
         <v>6618</v>
       </c>
-      <c r="P52">
+      <c r="Q54">
         <v>9927</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="C55">
         <v>306</v>
       </c>
-      <c r="C53">
+      <c r="D55">
         <v>708</v>
       </c>
-      <c r="D53">
+      <c r="E55">
         <v>1053</v>
       </c>
-      <c r="E53">
+      <c r="F55">
         <v>540</v>
       </c>
-      <c r="F53">
+      <c r="G55">
         <v>1008</v>
       </c>
-      <c r="G53">
+      <c r="H55">
         <v>2116</v>
       </c>
-      <c r="H53">
+      <c r="I55">
         <v>321</v>
       </c>
-      <c r="I53">
+      <c r="J55">
         <v>1037</v>
       </c>
-      <c r="J53">
+      <c r="K55">
         <v>2607</v>
       </c>
-      <c r="K53">
+      <c r="L55">
         <v>32</v>
       </c>
-      <c r="L53">
+      <c r="M55">
         <v>43</v>
       </c>
-      <c r="M53">
+      <c r="N55">
         <v>59</v>
       </c>
-      <c r="N53">
+      <c r="O55">
         <v>2421</v>
       </c>
-      <c r="O53">
+      <c r="P55">
         <v>7080</v>
       </c>
-      <c r="P53">
+      <c r="Q55">
         <v>10620</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="C56">
         <v>312</v>
       </c>
-      <c r="C54">
+      <c r="D56">
         <v>720</v>
       </c>
-      <c r="D54">
+      <c r="E56">
         <v>1070</v>
       </c>
-      <c r="E54">
+      <c r="F56">
         <v>551</v>
       </c>
-      <c r="F54">
+      <c r="G56">
         <v>1026</v>
       </c>
-      <c r="G54">
+      <c r="H56">
         <v>2154</v>
       </c>
-      <c r="H54">
+      <c r="I56">
         <v>331</v>
       </c>
-      <c r="I54">
+      <c r="J56">
         <v>1071</v>
       </c>
-      <c r="J54">
+      <c r="K56">
         <v>2636</v>
       </c>
-      <c r="K54">
+      <c r="L56">
         <v>32</v>
       </c>
-      <c r="L54">
+      <c r="M56">
         <v>43</v>
       </c>
-      <c r="M54">
+      <c r="N56">
         <v>59</v>
       </c>
-      <c r="N54">
+      <c r="O56">
         <v>2525</v>
       </c>
-      <c r="O54">
+      <c r="P56">
         <v>7506</v>
       </c>
-      <c r="P54">
+      <c r="Q56">
         <v>11259</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="C57">
         <v>318</v>
       </c>
-      <c r="C55">
+      <c r="D57">
         <v>732</v>
       </c>
-      <c r="D55">
+      <c r="E57">
         <v>1088</v>
       </c>
-      <c r="E55">
+      <c r="F57">
         <v>562</v>
       </c>
-      <c r="F55">
+      <c r="G57">
         <v>1044</v>
       </c>
-      <c r="G55">
+      <c r="H57">
         <v>2192</v>
       </c>
-      <c r="H55">
+      <c r="I57">
         <v>342</v>
       </c>
-      <c r="I55">
+      <c r="J57">
         <v>1105</v>
       </c>
-      <c r="J55">
+      <c r="K57">
         <v>2667</v>
       </c>
-      <c r="K55">
+      <c r="L57">
         <v>33</v>
       </c>
-      <c r="L55">
+      <c r="M57">
         <v>44</v>
       </c>
-      <c r="M55">
+      <c r="N57">
         <v>61</v>
       </c>
-      <c r="N55">
+      <c r="O57">
         <v>2629</v>
       </c>
-      <c r="O55">
+      <c r="P57">
         <v>7956</v>
       </c>
-      <c r="P55">
+      <c r="Q57">
         <v>11934</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="C58">
         <v>324</v>
       </c>
-      <c r="C56">
+      <c r="D58">
         <v>744</v>
       </c>
-      <c r="D56">
+      <c r="E58">
         <v>1106</v>
       </c>
-      <c r="E56">
+      <c r="F58">
         <v>573</v>
       </c>
-      <c r="F56">
+      <c r="G58">
         <v>1062</v>
       </c>
-      <c r="G56">
+      <c r="H58">
         <v>2230</v>
       </c>
-      <c r="H56">
+      <c r="I58">
         <v>352</v>
       </c>
-      <c r="I56">
+      <c r="J58">
         <v>1139</v>
       </c>
-      <c r="J56">
+      <c r="K58">
         <v>2707</v>
       </c>
-      <c r="K56">
+      <c r="L58">
         <v>34</v>
       </c>
-      <c r="L56">
+      <c r="M58">
         <v>45</v>
       </c>
-      <c r="M56">
+      <c r="N58">
         <v>63</v>
       </c>
-      <c r="N56">
+      <c r="O58">
         <v>2733</v>
       </c>
-      <c r="O56">
+      <c r="P58">
         <v>8435</v>
       </c>
-      <c r="P56">
+      <c r="Q58">
         <v>12653</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="C59">
         <v>330</v>
       </c>
-      <c r="C57">
+      <c r="D59">
         <v>756</v>
       </c>
-      <c r="D57">
+      <c r="E59">
         <v>1123</v>
       </c>
-      <c r="E57">
+      <c r="F59">
         <v>584</v>
       </c>
-      <c r="F57">
+      <c r="G59">
         <v>1080</v>
       </c>
-      <c r="G57">
+      <c r="H59">
         <v>2268</v>
       </c>
-      <c r="H57">
+      <c r="I59">
         <v>363</v>
       </c>
-      <c r="I57">
+      <c r="J59">
         <v>1173</v>
       </c>
-      <c r="J57">
+      <c r="K59">
         <v>2767</v>
       </c>
-      <c r="K57">
+      <c r="L59">
         <v>34</v>
       </c>
-      <c r="L57">
+      <c r="M59">
         <v>45</v>
       </c>
-      <c r="M57">
+      <c r="N59">
         <v>63</v>
       </c>
-      <c r="N57">
+      <c r="O59">
         <v>2837</v>
       </c>
-      <c r="O57">
+      <c r="P59">
         <v>8942</v>
       </c>
-      <c r="P57">
+      <c r="Q59">
         <v>13413</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="C60">
         <v>336</v>
       </c>
-      <c r="C58">
+      <c r="D60">
         <v>768</v>
       </c>
-      <c r="D58">
+      <c r="E60">
         <v>1141</v>
       </c>
-      <c r="E58">
+      <c r="F60">
         <v>595</v>
       </c>
-      <c r="F58">
+      <c r="G60">
         <v>1098</v>
       </c>
-      <c r="G58">
+      <c r="H60">
         <v>2306</v>
       </c>
-      <c r="H58">
+      <c r="I60">
         <v>374</v>
       </c>
-      <c r="I58">
+      <c r="J60">
         <v>1208</v>
       </c>
-      <c r="J58">
+      <c r="K60">
         <v>2847</v>
       </c>
-      <c r="K58">
+      <c r="L60">
         <v>35</v>
       </c>
-      <c r="L58">
+      <c r="M60">
         <v>47</v>
       </c>
-      <c r="M58">
+      <c r="N60">
         <v>65</v>
       </c>
-      <c r="N58">
+      <c r="O60">
         <v>2941</v>
       </c>
-      <c r="O58">
+      <c r="P60">
         <v>9477</v>
       </c>
-      <c r="P58">
+      <c r="Q60">
         <v>14216</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="C61">
         <v>342</v>
       </c>
-      <c r="C59">
+      <c r="D61">
         <v>780</v>
       </c>
-      <c r="D59">
+      <c r="E61">
         <v>1158</v>
       </c>
-      <c r="E59">
+      <c r="F61">
         <v>606</v>
       </c>
-      <c r="F59">
+      <c r="G61">
         <v>1116</v>
       </c>
-      <c r="G59">
+      <c r="H61">
         <v>2344</v>
       </c>
-      <c r="H59">
+      <c r="I61">
         <v>384</v>
       </c>
-      <c r="I59">
+      <c r="J61">
         <v>1241</v>
       </c>
-      <c r="J59">
+      <c r="K61">
         <v>2962</v>
       </c>
-      <c r="K59">
+      <c r="L61">
         <v>35</v>
       </c>
-      <c r="L59">
+      <c r="M61">
         <v>47</v>
       </c>
-      <c r="M59">
+      <c r="N61">
         <v>65</v>
       </c>
-      <c r="N59">
+      <c r="O61">
         <v>3045</v>
       </c>
-      <c r="O59">
+      <c r="P61">
         <v>10044</v>
       </c>
-      <c r="P59">
+      <c r="Q61">
         <v>15066</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="C62">
         <v>348</v>
       </c>
-      <c r="C60">
+      <c r="D62">
         <v>792</v>
       </c>
-      <c r="D60">
+      <c r="E62">
         <v>1176</v>
       </c>
-      <c r="E60">
+      <c r="F62">
         <v>617</v>
       </c>
-      <c r="F60">
+      <c r="G62">
         <v>1134</v>
       </c>
-      <c r="G60">
+      <c r="H62">
         <v>2382</v>
       </c>
-      <c r="H60">
+      <c r="I62">
         <v>395</v>
       </c>
-      <c r="I60">
+      <c r="J62">
         <v>1276</v>
       </c>
-      <c r="J60">
+      <c r="K62">
         <v>3077</v>
       </c>
-      <c r="K60">
+      <c r="L62">
         <v>36</v>
       </c>
-      <c r="L60">
+      <c r="M62">
         <v>48</v>
       </c>
-      <c r="M60">
+      <c r="N62">
         <v>67</v>
       </c>
-      <c r="N60">
+      <c r="O62">
         <v>3149</v>
       </c>
-      <c r="O60">
+      <c r="P62">
         <v>10647</v>
       </c>
-      <c r="P60">
+      <c r="Q62">
         <v>15971</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="C63">
         <v>354</v>
       </c>
-      <c r="C61">
+      <c r="D63">
         <v>804</v>
       </c>
-      <c r="D61">
+      <c r="E63">
         <v>1194</v>
       </c>
-      <c r="E61">
+      <c r="F63">
         <v>628</v>
       </c>
-      <c r="F61">
+      <c r="G63">
         <v>1152</v>
       </c>
-      <c r="G61">
+      <c r="H63">
         <v>2420</v>
       </c>
-      <c r="H61">
+      <c r="I63">
         <v>406</v>
       </c>
-      <c r="I61">
+      <c r="J63">
         <v>1309</v>
       </c>
-      <c r="J61">
+      <c r="K63">
         <v>3192</v>
       </c>
-      <c r="K61">
+      <c r="L63">
         <v>37</v>
       </c>
-      <c r="L61">
+      <c r="M63">
         <v>49</v>
       </c>
-      <c r="M61">
+      <c r="N63">
         <v>68</v>
       </c>
-      <c r="N61">
+      <c r="O63">
         <v>3253</v>
       </c>
-      <c r="O61">
+      <c r="P63">
         <v>11286</v>
       </c>
-      <c r="P61">
+      <c r="Q63">
         <v>16929</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="C64">
         <v>360</v>
       </c>
-      <c r="C62">
+      <c r="D64">
         <v>816</v>
       </c>
-      <c r="D62">
+      <c r="E64">
         <v>1211</v>
       </c>
-      <c r="E62">
+      <c r="F64">
         <v>639</v>
       </c>
-      <c r="F62">
+      <c r="G64">
         <v>1170</v>
       </c>
-      <c r="G62">
+      <c r="H64">
         <v>2458</v>
       </c>
-      <c r="H62">
+      <c r="I64">
         <v>418</v>
       </c>
-      <c r="I62">
+      <c r="J64">
         <v>1344</v>
       </c>
-      <c r="J62">
+      <c r="K64">
         <v>3307</v>
       </c>
-      <c r="K62">
+      <c r="L64">
         <v>37</v>
       </c>
-      <c r="L62">
+      <c r="M64">
         <v>49</v>
       </c>
-      <c r="M62">
+      <c r="N64">
         <v>68</v>
       </c>
-      <c r="N62">
+      <c r="O64">
         <v>3357</v>
       </c>
-      <c r="O62">
+      <c r="P64">
         <v>11964</v>
       </c>
-      <c r="P62">
+      <c r="Q64">
         <v>17946</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="C65">
         <v>366</v>
       </c>
-      <c r="C63">
+      <c r="D65">
         <v>828</v>
       </c>
-      <c r="D63">
+      <c r="E65">
         <v>1229</v>
       </c>
-      <c r="E63">
+      <c r="F65">
         <v>650</v>
       </c>
-      <c r="F63">
+      <c r="G65">
         <v>1188</v>
       </c>
-      <c r="G63">
+      <c r="H65">
         <v>2496</v>
       </c>
-      <c r="H63">
+      <c r="I65">
         <v>430</v>
       </c>
-      <c r="I63">
+      <c r="J65">
         <v>1379</v>
       </c>
-      <c r="J63">
+      <c r="K65">
         <v>3422</v>
       </c>
-      <c r="K63">
+      <c r="L65">
         <v>38</v>
       </c>
-      <c r="L63">
+      <c r="M65">
         <v>51</v>
       </c>
-      <c r="M63">
+      <c r="N65">
         <v>70</v>
       </c>
-      <c r="N63">
+      <c r="O65">
         <v>3461</v>
       </c>
-      <c r="O63">
+      <c r="P65">
         <v>12680</v>
       </c>
-      <c r="P63">
+      <c r="Q65">
         <v>19020</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="C66">
         <v>372</v>
       </c>
-      <c r="C64">
+      <c r="D66">
         <v>840</v>
       </c>
-      <c r="D64">
+      <c r="E66">
         <v>1246</v>
       </c>
-      <c r="E64">
+      <c r="F66">
         <v>661</v>
       </c>
-      <c r="F64">
+      <c r="G66">
         <v>1206</v>
       </c>
-      <c r="G64">
+      <c r="H66">
         <v>2534</v>
       </c>
-      <c r="H64">
+      <c r="I66">
         <v>442</v>
       </c>
-      <c r="I64">
+      <c r="J66">
         <v>1412</v>
       </c>
-      <c r="J64">
+      <c r="K66">
         <v>3537</v>
       </c>
-      <c r="K64">
+      <c r="L66">
         <v>38</v>
       </c>
-      <c r="L64">
+      <c r="M66">
         <v>51</v>
       </c>
-      <c r="M64">
+      <c r="N66">
         <v>70</v>
       </c>
-      <c r="N64">
+      <c r="O66">
         <v>3565</v>
       </c>
-      <c r="O64">
+      <c r="P66">
         <v>13442</v>
       </c>
-      <c r="P64">
+      <c r="Q66">
         <v>20163</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="C67">
         <v>378</v>
       </c>
-      <c r="C65">
+      <c r="D67">
         <v>852</v>
       </c>
-      <c r="D65">
+      <c r="E67">
         <v>1264</v>
       </c>
-      <c r="E65">
+      <c r="F67">
         <v>672</v>
       </c>
-      <c r="F65">
+      <c r="G67">
         <v>1224</v>
       </c>
-      <c r="G65">
+      <c r="H67">
         <v>2572</v>
       </c>
-      <c r="H65">
+      <c r="I67">
         <v>454</v>
       </c>
-      <c r="I65">
+      <c r="J67">
         <v>1447</v>
       </c>
-      <c r="J65">
+      <c r="K67">
         <v>3652</v>
       </c>
-      <c r="K65">
+      <c r="L67">
         <v>39</v>
       </c>
-      <c r="L65">
+      <c r="M67">
         <v>52</v>
       </c>
-      <c r="M65">
+      <c r="N67">
         <v>72</v>
       </c>
-      <c r="N65">
+      <c r="O67">
         <v>3669</v>
       </c>
-      <c r="O65">
+      <c r="P67">
         <v>14249</v>
       </c>
-      <c r="P65">
+      <c r="Q67">
         <v>21374</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="C68">
         <v>384</v>
       </c>
-      <c r="C66">
+      <c r="D68">
         <v>864</v>
       </c>
-      <c r="D66">
+      <c r="E68">
         <v>1282</v>
       </c>
-      <c r="E66">
+      <c r="F68">
         <v>683</v>
       </c>
-      <c r="F66">
+      <c r="G68">
         <v>1242</v>
       </c>
-      <c r="G66">
+      <c r="H68">
         <v>2610</v>
       </c>
-      <c r="H66">
+      <c r="I68">
         <v>466</v>
       </c>
-      <c r="I66">
+      <c r="J68">
         <v>1480</v>
       </c>
-      <c r="J66">
+      <c r="K68">
         <v>3767</v>
       </c>
-      <c r="K66">
+      <c r="L68">
         <v>39</v>
       </c>
-      <c r="L66">
+      <c r="M68">
         <v>52</v>
       </c>
-      <c r="M66">
+      <c r="N68">
         <v>72</v>
       </c>
-      <c r="N66">
+      <c r="O68">
         <v>3773</v>
       </c>
-      <c r="O66">
+      <c r="P68">
         <v>15104</v>
       </c>
-      <c r="P66">
+      <c r="Q68">
         <v>22656</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="C69">
         <v>390</v>
       </c>
-      <c r="C67">
+      <c r="D69">
         <v>876</v>
       </c>
-      <c r="D67">
+      <c r="E69">
         <v>1299</v>
       </c>
-      <c r="E67">
+      <c r="F69">
         <v>694</v>
       </c>
-      <c r="F67">
+      <c r="G69">
         <v>1260</v>
       </c>
-      <c r="G67">
+      <c r="H69">
         <v>2648</v>
       </c>
-      <c r="H67">
+      <c r="I69">
         <v>477</v>
       </c>
-      <c r="I67">
+      <c r="J69">
         <v>1515</v>
       </c>
-      <c r="J67">
+      <c r="K69">
         <v>3882</v>
       </c>
-      <c r="K67">
+      <c r="L69">
         <v>40</v>
       </c>
-      <c r="L67">
+      <c r="M69">
         <v>53</v>
       </c>
-      <c r="M67">
+      <c r="N69">
         <v>74</v>
       </c>
-      <c r="N67">
+      <c r="O69">
         <v>3877</v>
       </c>
-      <c r="O67">
+      <c r="P69">
         <v>16010</v>
       </c>
-      <c r="P67">
+      <c r="Q69">
         <v>24015</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="C70">
         <v>396</v>
       </c>
-      <c r="C68">
+      <c r="D70">
         <v>888</v>
       </c>
-      <c r="D68">
+      <c r="E70">
         <v>1317</v>
       </c>
-      <c r="E68">
+      <c r="F70">
         <v>705</v>
       </c>
-      <c r="F68">
+      <c r="G70">
         <v>1278</v>
       </c>
-      <c r="G68">
+      <c r="H70">
         <v>2686</v>
       </c>
-      <c r="H68">
+      <c r="I70">
         <v>489</v>
       </c>
-      <c r="I68">
+      <c r="J70">
         <v>1549</v>
       </c>
-      <c r="J68">
+      <c r="K70">
         <v>3997</v>
       </c>
-      <c r="K68">
+      <c r="L70">
         <v>41</v>
       </c>
-      <c r="L68">
+      <c r="M70">
         <v>55</v>
       </c>
-      <c r="M68">
+      <c r="N70">
         <v>76</v>
       </c>
-      <c r="N68">
+      <c r="O70">
         <v>3981</v>
       </c>
-      <c r="O68">
+      <c r="P70">
         <v>16916</v>
       </c>
-      <c r="P68">
+      <c r="Q70">
         <v>25374</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A69">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="C71">
         <v>402</v>
       </c>
-      <c r="C69">
+      <c r="D71">
         <v>900</v>
       </c>
-      <c r="D69">
+      <c r="E71">
         <v>1334</v>
       </c>
-      <c r="E69">
+      <c r="F71">
         <v>716</v>
       </c>
-      <c r="F69">
+      <c r="G71">
         <v>1296</v>
       </c>
-      <c r="G69">
+      <c r="H71">
         <v>2724</v>
       </c>
-      <c r="H69">
+      <c r="I71">
         <v>501</v>
       </c>
-      <c r="I69">
+      <c r="J71">
         <v>1583</v>
       </c>
-      <c r="J69">
+      <c r="K71">
         <v>4112</v>
       </c>
-      <c r="K69">
+      <c r="L71">
         <v>41</v>
       </c>
-      <c r="L69">
+      <c r="M71">
         <v>55</v>
       </c>
-      <c r="M69">
+      <c r="N71">
         <v>76</v>
       </c>
-      <c r="N69">
+      <c r="O71">
         <v>4085</v>
       </c>
-      <c r="O69">
+      <c r="P71">
         <v>17822</v>
       </c>
-      <c r="P69">
+      <c r="Q71">
         <v>26733</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A70">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="C72">
         <v>408</v>
       </c>
-      <c r="C70">
+      <c r="D72">
         <v>912</v>
       </c>
-      <c r="D70">
+      <c r="E72">
         <v>1352</v>
       </c>
-      <c r="E70">
+      <c r="F72">
         <v>727</v>
       </c>
-      <c r="F70">
+      <c r="G72">
         <v>1314</v>
       </c>
-      <c r="G70">
+      <c r="H72">
         <v>2762</v>
       </c>
-      <c r="H70">
+      <c r="I72">
         <v>513</v>
       </c>
-      <c r="I70">
+      <c r="J72">
         <v>1617</v>
       </c>
-      <c r="J70">
+      <c r="K72">
         <v>4227</v>
       </c>
-      <c r="K70">
+      <c r="L72">
         <v>42</v>
       </c>
-      <c r="L70">
+      <c r="M72">
         <v>56</v>
       </c>
-      <c r="M70">
+      <c r="N72">
         <v>78</v>
       </c>
-      <c r="N70">
+      <c r="O72">
         <v>4189</v>
       </c>
-      <c r="O70">
+      <c r="P72">
         <v>18728</v>
       </c>
-      <c r="P70">
+      <c r="Q72">
         <v>28092</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A71">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="C73">
         <v>414</v>
       </c>
-      <c r="C71">
+      <c r="D73">
         <v>924</v>
       </c>
-      <c r="D71">
+      <c r="E73">
         <v>1370</v>
       </c>
-      <c r="E71">
+      <c r="F73">
         <v>738</v>
       </c>
-      <c r="F71">
+      <c r="G73">
         <v>1332</v>
       </c>
-      <c r="G71">
+      <c r="H73">
         <v>2800</v>
       </c>
-      <c r="H71">
+      <c r="I73">
         <v>525</v>
       </c>
-      <c r="I71">
+      <c r="J73">
         <v>1651</v>
       </c>
-      <c r="J71">
+      <c r="K73">
         <v>4342</v>
       </c>
-      <c r="K71">
+      <c r="L73">
         <v>43</v>
       </c>
-      <c r="L71">
+      <c r="M73">
         <v>57</v>
       </c>
-      <c r="M71">
+      <c r="N73">
         <v>80</v>
       </c>
-      <c r="N71">
+      <c r="O73">
         <v>4293</v>
       </c>
-      <c r="O71">
+      <c r="P73">
         <v>19634</v>
       </c>
-      <c r="P71">
+      <c r="Q73">
         <v>29451</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A72">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="C74">
         <v>420</v>
       </c>
-      <c r="C72">
+      <c r="D74">
         <v>936</v>
       </c>
-      <c r="D72">
+      <c r="E74">
         <v>1387</v>
       </c>
-      <c r="E72">
+      <c r="F74">
         <v>749</v>
       </c>
-      <c r="F72">
+      <c r="G74">
         <v>1350</v>
       </c>
-      <c r="G72">
+      <c r="H74">
         <v>2838</v>
       </c>
-      <c r="H72">
+      <c r="I74">
         <v>539</v>
       </c>
-      <c r="I72">
+      <c r="J74">
         <v>1685</v>
       </c>
-      <c r="J72">
+      <c r="K74">
         <v>4457</v>
       </c>
-      <c r="K72">
+      <c r="L74">
         <v>43</v>
       </c>
-      <c r="L72">
+      <c r="M74">
         <v>57</v>
       </c>
-      <c r="M72">
+      <c r="N74">
         <v>80</v>
       </c>
-      <c r="N72">
+      <c r="O74">
         <v>4397</v>
       </c>
-      <c r="O72">
+      <c r="P74">
         <v>20540</v>
       </c>
-      <c r="P72">
+      <c r="Q74">
         <v>30810</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A73">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="C75">
         <v>426</v>
       </c>
-      <c r="C73">
+      <c r="D75">
         <v>948</v>
       </c>
-      <c r="D73">
+      <c r="E75">
         <v>1405</v>
       </c>
-      <c r="E73">
+      <c r="F75">
         <v>760</v>
       </c>
-      <c r="F73">
+      <c r="G75">
         <v>1368</v>
       </c>
-      <c r="G73">
+      <c r="H75">
         <v>2876</v>
       </c>
-      <c r="H73">
+      <c r="I75">
         <v>552</v>
       </c>
-      <c r="I73">
+      <c r="J75">
         <v>1720</v>
       </c>
-      <c r="J73">
+      <c r="K75">
         <v>4572</v>
       </c>
-      <c r="K73">
+      <c r="L75">
         <v>44</v>
       </c>
-      <c r="L73">
+      <c r="M75">
         <v>59</v>
       </c>
-      <c r="M73">
+      <c r="N75">
         <v>81</v>
       </c>
-      <c r="N73">
+      <c r="O75">
         <v>4501</v>
       </c>
-      <c r="O73">
+      <c r="P75">
         <v>21446</v>
       </c>
-      <c r="P73">
+      <c r="Q75">
         <v>32169</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A74">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="C76">
         <v>432</v>
       </c>
-      <c r="C74">
+      <c r="D76">
         <v>960</v>
       </c>
-      <c r="D74">
+      <c r="E76">
         <v>1422</v>
       </c>
-      <c r="E74">
+      <c r="F76">
         <v>771</v>
       </c>
-      <c r="F74">
+      <c r="G76">
         <v>1386</v>
       </c>
-      <c r="G74">
+      <c r="H76">
         <v>2914</v>
       </c>
-      <c r="H74">
+      <c r="I76">
         <v>565</v>
       </c>
-      <c r="I74">
+      <c r="J76">
         <v>1753</v>
       </c>
-      <c r="J74">
+      <c r="K76">
         <v>4687</v>
       </c>
-      <c r="K74">
+      <c r="L76">
         <v>44</v>
       </c>
-      <c r="L74">
+      <c r="M76">
         <v>59</v>
       </c>
-      <c r="M74">
+      <c r="N76">
         <v>81</v>
       </c>
-      <c r="N74">
+      <c r="O76">
         <v>4605</v>
       </c>
-      <c r="O74">
+      <c r="P76">
         <v>22352</v>
       </c>
-      <c r="P74">
+      <c r="Q76">
         <v>33528</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="C77">
         <v>438</v>
       </c>
-      <c r="C75">
+      <c r="D77">
         <v>972</v>
       </c>
-      <c r="D75">
+      <c r="E77">
         <v>1440</v>
       </c>
-      <c r="E75">
+      <c r="F77">
         <v>782</v>
       </c>
-      <c r="F75">
+      <c r="G77">
         <v>1404</v>
       </c>
-      <c r="G75">
+      <c r="H77">
         <v>2952</v>
       </c>
-      <c r="H75">
+      <c r="I77">
         <v>579</v>
       </c>
-      <c r="I75">
+      <c r="J77">
         <v>1788</v>
       </c>
-      <c r="J75">
+      <c r="K77">
         <v>4802</v>
       </c>
-      <c r="K75">
+      <c r="L77">
         <v>45</v>
       </c>
-      <c r="L75">
+      <c r="M77">
         <v>60</v>
       </c>
-      <c r="M75">
+      <c r="N77">
         <v>83</v>
       </c>
-      <c r="N75">
+      <c r="O77">
         <v>4709</v>
       </c>
-      <c r="O75">
+      <c r="P77">
         <v>23258</v>
       </c>
-      <c r="P75">
+      <c r="Q77">
         <v>34887</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A76">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="C78">
         <v>444</v>
       </c>
-      <c r="C76">
+      <c r="D78">
         <v>984</v>
       </c>
-      <c r="D76">
+      <c r="E78">
         <v>1458</v>
       </c>
-      <c r="E76">
+      <c r="F78">
         <v>793</v>
       </c>
-      <c r="F76">
+      <c r="G78">
         <v>1422</v>
       </c>
-      <c r="G76">
+      <c r="H78">
         <v>2990</v>
       </c>
-      <c r="H76">
+      <c r="I78">
         <v>592</v>
       </c>
-      <c r="I76">
+      <c r="J78">
         <v>1821</v>
       </c>
-      <c r="J76">
+      <c r="K78">
         <v>4917</v>
       </c>
-      <c r="K76">
+      <c r="L78">
         <v>46</v>
       </c>
-      <c r="L76">
+      <c r="M78">
         <v>61</v>
       </c>
-      <c r="M76">
+      <c r="N78">
         <v>85</v>
       </c>
-      <c r="N76">
+      <c r="O78">
         <v>4813</v>
       </c>
-      <c r="O76">
+      <c r="P78">
         <v>24164</v>
       </c>
-      <c r="P76">
+      <c r="Q78">
         <v>36246</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A77">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="C79">
         <v>450</v>
       </c>
-      <c r="C77">
+      <c r="D79">
         <v>996</v>
       </c>
-      <c r="D77">
+      <c r="E79">
         <v>1475</v>
       </c>
-      <c r="E77">
+      <c r="F79">
         <v>804</v>
       </c>
-      <c r="F77">
+      <c r="G79">
         <v>1440</v>
       </c>
-      <c r="G77">
+      <c r="H79">
         <v>3028</v>
       </c>
-      <c r="H77">
+      <c r="I79">
         <v>605</v>
       </c>
-      <c r="I77">
+      <c r="J79">
         <v>1856</v>
       </c>
-      <c r="J77">
+      <c r="K79">
         <v>5032</v>
       </c>
-      <c r="K77">
+      <c r="L79">
         <v>46</v>
       </c>
-      <c r="L77">
+      <c r="M79">
         <v>61</v>
       </c>
-      <c r="M77">
+      <c r="N79">
         <v>85</v>
       </c>
-      <c r="N77">
+      <c r="O79">
         <v>4917</v>
       </c>
-      <c r="O77">
+      <c r="P79">
         <v>25070</v>
       </c>
-      <c r="P77">
+      <c r="Q79">
         <v>37605</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="C80">
         <v>456</v>
       </c>
-      <c r="C78">
+      <c r="D80">
         <v>1008</v>
       </c>
-      <c r="D78">
+      <c r="E80">
         <v>1493</v>
       </c>
-      <c r="E78">
+      <c r="F80">
         <v>815</v>
       </c>
-      <c r="F78">
+      <c r="G80">
         <v>1458</v>
       </c>
-      <c r="G78">
+      <c r="H80">
         <v>3066</v>
       </c>
-      <c r="H78">
+      <c r="I80">
         <v>618</v>
       </c>
-      <c r="I78">
+      <c r="J80">
         <v>1891</v>
       </c>
-      <c r="J78">
+      <c r="K80">
         <v>5147</v>
       </c>
-      <c r="K78">
+      <c r="L80">
         <v>47</v>
       </c>
-      <c r="L78">
+      <c r="M80">
         <v>63</v>
       </c>
-      <c r="M78">
+      <c r="N80">
         <v>87</v>
       </c>
-      <c r="N78">
+      <c r="O80">
         <v>5021</v>
       </c>
-      <c r="O78">
+      <c r="P80">
         <v>25976</v>
       </c>
-      <c r="P78">
+      <c r="Q80">
         <v>38964</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A79">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="C81">
         <v>462</v>
       </c>
-      <c r="C79">
+      <c r="D81">
         <v>1020</v>
       </c>
-      <c r="D79">
+      <c r="E81">
         <v>1510</v>
       </c>
-      <c r="E79">
+      <c r="F81">
         <v>826</v>
       </c>
-      <c r="F79">
+      <c r="G81">
         <v>1476</v>
       </c>
-      <c r="G79">
+      <c r="H81">
         <v>3104</v>
       </c>
-      <c r="H79">
+      <c r="I81">
         <v>632</v>
       </c>
-      <c r="I79">
+      <c r="J81">
         <v>1924</v>
       </c>
-      <c r="J79">
+      <c r="K81">
         <v>5262</v>
       </c>
-      <c r="K79">
+      <c r="L81">
         <v>47</v>
       </c>
-      <c r="L79">
+      <c r="M81">
         <v>63</v>
       </c>
-      <c r="M79">
+      <c r="N81">
         <v>87</v>
       </c>
-      <c r="N79">
+      <c r="O81">
         <v>5125</v>
       </c>
-      <c r="O79">
+      <c r="P81">
         <v>26882</v>
       </c>
-      <c r="P79">
+      <c r="Q81">
         <v>40323</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A80">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="C82">
         <v>468</v>
       </c>
-      <c r="C80">
+      <c r="D82">
         <v>1032</v>
       </c>
-      <c r="D80">
+      <c r="E82">
         <v>1528</v>
       </c>
-      <c r="E80">
+      <c r="F82">
         <v>837</v>
       </c>
-      <c r="F80">
+      <c r="G82">
         <v>1494</v>
       </c>
-      <c r="G80">
+      <c r="H82">
         <v>3142</v>
       </c>
-      <c r="H80">
+      <c r="I82">
         <v>645</v>
       </c>
-      <c r="I80">
+      <c r="J82">
         <v>1959</v>
       </c>
-      <c r="J80">
+      <c r="K82">
         <v>5377</v>
       </c>
-      <c r="K80">
+      <c r="L82">
         <v>48</v>
       </c>
-      <c r="L80">
+      <c r="M82">
         <v>64</v>
       </c>
-      <c r="M80">
+      <c r="N82">
         <v>89</v>
       </c>
-      <c r="N80">
+      <c r="O82">
         <v>5229</v>
       </c>
-      <c r="O80">
+      <c r="P82">
         <v>27788</v>
       </c>
-      <c r="P80">
+      <c r="Q82">
         <v>41682</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="C83">
         <v>474</v>
       </c>
-      <c r="C81">
+      <c r="D83">
         <v>1044</v>
       </c>
-      <c r="D81">
+      <c r="E83">
         <v>1546</v>
       </c>
-      <c r="E81">
+      <c r="F83">
         <v>848</v>
       </c>
-      <c r="F81">
+      <c r="G83">
         <v>1512</v>
       </c>
-      <c r="G81">
+      <c r="H83">
         <v>3180</v>
       </c>
-      <c r="H81">
+      <c r="I83">
         <v>658</v>
       </c>
-      <c r="I81">
+      <c r="J83">
         <v>1992</v>
       </c>
-      <c r="J81">
+      <c r="K83">
         <v>5492</v>
       </c>
-      <c r="K81">
+      <c r="L83">
         <v>49</v>
       </c>
-      <c r="L81">
+      <c r="M83">
         <v>65</v>
       </c>
-      <c r="M81">
+      <c r="N83">
         <v>91</v>
       </c>
-      <c r="N81">
+      <c r="O83">
         <v>5333</v>
       </c>
-      <c r="O81">
+      <c r="P83">
         <v>28694</v>
       </c>
-      <c r="P81">
+      <c r="Q83">
         <v>43041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A82">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="C84">
         <v>480</v>
       </c>
-      <c r="C82">
+      <c r="D84">
         <v>1056</v>
       </c>
-      <c r="D82">
+      <c r="E84">
         <v>1563</v>
       </c>
-      <c r="E82">
+      <c r="F84">
         <v>859</v>
       </c>
-      <c r="F82">
+      <c r="G84">
         <v>1530</v>
       </c>
-      <c r="G82">
+      <c r="H84">
         <v>3218</v>
       </c>
-      <c r="H82">
+      <c r="I84">
         <v>673</v>
       </c>
-      <c r="I82">
+      <c r="J84">
         <v>2027</v>
       </c>
-      <c r="J82">
+      <c r="K84">
         <v>5607</v>
       </c>
-      <c r="K82">
+      <c r="L84">
         <v>49</v>
       </c>
-      <c r="L82">
+      <c r="M84">
         <v>65</v>
       </c>
-      <c r="M82">
+      <c r="N84">
         <v>91</v>
       </c>
-      <c r="N82">
+      <c r="O84">
         <v>5437</v>
       </c>
-      <c r="O82">
+      <c r="P84">
         <v>29600</v>
       </c>
-      <c r="P82">
+      <c r="Q84">
         <v>44400</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A83">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="C85">
         <v>486</v>
       </c>
-      <c r="C83">
+      <c r="D85">
         <v>1068</v>
       </c>
-      <c r="D83">
+      <c r="E85">
         <v>1581</v>
       </c>
-      <c r="E83">
+      <c r="F85">
         <v>870</v>
       </c>
-      <c r="F83">
+      <c r="G85">
         <v>1548</v>
       </c>
-      <c r="G83">
+      <c r="H85">
         <v>3256</v>
       </c>
-      <c r="H83">
+      <c r="I85">
         <v>688</v>
       </c>
-      <c r="I83">
+      <c r="J85">
         <v>2061</v>
       </c>
-      <c r="J83">
+      <c r="K85">
         <v>5722</v>
       </c>
-      <c r="K83">
+      <c r="L85">
         <v>50</v>
       </c>
-      <c r="L83">
+      <c r="M85">
         <v>67</v>
       </c>
-      <c r="M83">
+      <c r="N85">
         <v>93</v>
       </c>
-      <c r="N83">
+      <c r="O85">
         <v>5541</v>
       </c>
-      <c r="O83">
+      <c r="P85">
         <v>30506</v>
       </c>
-      <c r="P83">
+      <c r="Q85">
         <v>45759</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A84">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="C86">
         <v>492</v>
       </c>
-      <c r="C84">
+      <c r="D86">
         <v>1080</v>
       </c>
-      <c r="D84">
+      <c r="E86">
         <v>1598</v>
       </c>
-      <c r="E84">
+      <c r="F86">
         <v>881</v>
       </c>
-      <c r="F84">
+      <c r="G86">
         <v>1566</v>
       </c>
-      <c r="G84">
+      <c r="H86">
         <v>3294</v>
       </c>
-      <c r="H84">
+      <c r="I86">
         <v>702</v>
       </c>
-      <c r="I84">
+      <c r="J86">
         <v>2095</v>
       </c>
-      <c r="J84">
+      <c r="K86">
         <v>5837</v>
       </c>
-      <c r="K84">
+      <c r="L86">
         <v>50</v>
       </c>
-      <c r="L84">
+      <c r="M86">
         <v>67</v>
       </c>
-      <c r="M84">
+      <c r="N86">
         <v>93</v>
       </c>
-      <c r="N84">
+      <c r="O86">
         <v>5645</v>
       </c>
-      <c r="O84">
+      <c r="P86">
         <v>31412</v>
       </c>
-      <c r="P84">
+      <c r="Q86">
         <v>47118</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="C87">
         <v>498</v>
       </c>
-      <c r="C85">
+      <c r="D87">
         <v>1092</v>
       </c>
-      <c r="D85">
+      <c r="E87">
         <v>1616</v>
       </c>
-      <c r="E85">
+      <c r="F87">
         <v>892</v>
       </c>
-      <c r="F85">
+      <c r="G87">
         <v>1584</v>
       </c>
-      <c r="G85">
+      <c r="H87">
         <v>3332</v>
       </c>
-      <c r="H85">
+      <c r="I87">
         <v>717</v>
       </c>
-      <c r="I85">
+      <c r="J87">
         <v>2129</v>
       </c>
-      <c r="J85">
+      <c r="K87">
         <v>5952</v>
       </c>
-      <c r="K85">
+      <c r="L87">
         <v>51</v>
       </c>
-      <c r="L85">
+      <c r="M87">
         <v>68</v>
       </c>
-      <c r="M85">
+      <c r="N87">
         <v>94</v>
       </c>
-      <c r="N85">
+      <c r="O87">
         <v>5749</v>
       </c>
-      <c r="O85">
+      <c r="P87">
         <v>32318</v>
       </c>
-      <c r="P85">
+      <c r="Q87">
         <v>48477</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="C88">
         <v>504</v>
       </c>
-      <c r="C86">
+      <c r="D88">
         <v>1104</v>
       </c>
-      <c r="D86">
+      <c r="E88">
         <v>1634</v>
       </c>
-      <c r="E86">
+      <c r="F88">
         <v>903</v>
       </c>
-      <c r="F86">
+      <c r="G88">
         <v>1602</v>
       </c>
-      <c r="G86">
+      <c r="H88">
         <v>3370</v>
       </c>
-      <c r="H86">
+      <c r="I88">
         <v>732</v>
       </c>
-      <c r="I86">
+      <c r="J88">
         <v>2163</v>
       </c>
-      <c r="J86">
+      <c r="K88">
         <v>6067</v>
       </c>
-      <c r="K86">
+      <c r="L88">
         <v>51</v>
       </c>
-      <c r="L86">
+      <c r="M88">
         <v>68</v>
       </c>
-      <c r="M86">
+      <c r="N88">
         <v>94</v>
       </c>
-      <c r="N86">
+      <c r="O88">
         <v>5853</v>
       </c>
-      <c r="O86">
+      <c r="P88">
         <v>33224</v>
       </c>
-      <c r="P86">
+      <c r="Q88">
         <v>49836</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A87">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="C89">
         <v>510</v>
       </c>
-      <c r="C87">
+      <c r="D89">
         <v>1116</v>
       </c>
-      <c r="D87">
+      <c r="E89">
         <v>1651</v>
       </c>
-      <c r="E87">
+      <c r="F89">
         <v>914</v>
       </c>
-      <c r="F87">
+      <c r="G89">
         <v>1620</v>
       </c>
-      <c r="G87">
+      <c r="H89">
         <v>3408</v>
       </c>
-      <c r="H87">
+      <c r="I89">
         <v>746</v>
       </c>
-      <c r="I87">
+      <c r="J89">
         <v>2197</v>
       </c>
-      <c r="J87">
+      <c r="K89">
         <v>6182</v>
       </c>
-      <c r="K87">
+      <c r="L89">
         <v>52</v>
       </c>
-      <c r="L87">
+      <c r="M89">
         <v>69</v>
       </c>
-      <c r="M87">
+      <c r="N89">
         <v>96</v>
       </c>
-      <c r="N87">
+      <c r="O89">
         <v>5957</v>
       </c>
-      <c r="O87">
+      <c r="P89">
         <v>34130</v>
       </c>
-      <c r="P87">
+      <c r="Q89">
         <v>51195</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="C90">
         <v>516</v>
       </c>
-      <c r="C88">
+      <c r="D90">
         <v>1128</v>
       </c>
-      <c r="D88">
+      <c r="E90">
         <v>1669</v>
       </c>
-      <c r="E88">
+      <c r="F90">
         <v>925</v>
       </c>
-      <c r="F88">
+      <c r="G90">
         <v>1638</v>
       </c>
-      <c r="G88">
+      <c r="H90">
         <v>3446</v>
       </c>
-      <c r="H88">
+      <c r="I90">
         <v>761</v>
       </c>
-      <c r="I88">
+      <c r="J90">
         <v>2232</v>
       </c>
-      <c r="J88">
+      <c r="K90">
         <v>6297</v>
       </c>
-      <c r="K88">
+      <c r="L90">
         <v>53</v>
       </c>
-      <c r="L88">
+      <c r="M90">
         <v>70</v>
       </c>
-      <c r="M88">
+      <c r="N90">
         <v>98</v>
       </c>
-      <c r="N88">
+      <c r="O90">
         <v>6061</v>
       </c>
-      <c r="O88">
+      <c r="P90">
         <v>35036</v>
       </c>
-      <c r="P88">
+      <c r="Q90">
         <v>52554</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="C91">
         <v>522</v>
       </c>
-      <c r="C89">
+      <c r="D91">
         <v>1140</v>
       </c>
-      <c r="D89">
+      <c r="E91">
         <v>1686</v>
       </c>
-      <c r="E89">
+      <c r="F91">
         <v>936</v>
       </c>
-      <c r="F89">
+      <c r="G91">
         <v>1656</v>
       </c>
-      <c r="G89">
+      <c r="H91">
         <v>3484</v>
       </c>
-      <c r="H89">
+      <c r="I91">
         <v>775</v>
       </c>
-      <c r="I89">
+      <c r="J91">
         <v>2265</v>
       </c>
-      <c r="J89">
+      <c r="K91">
         <v>6412</v>
       </c>
-      <c r="K89">
+      <c r="L91">
         <v>53</v>
       </c>
-      <c r="L89">
+      <c r="M91">
         <v>70</v>
       </c>
-      <c r="M89">
+      <c r="N91">
         <v>98</v>
       </c>
-      <c r="N89">
+      <c r="O91">
         <v>6165</v>
       </c>
-      <c r="O89">
+      <c r="P91">
         <v>35942</v>
       </c>
-      <c r="P89">
+      <c r="Q91">
         <v>53913</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="C92">
         <v>528</v>
       </c>
-      <c r="C90">
+      <c r="D92">
         <v>1152</v>
       </c>
-      <c r="D90">
+      <c r="E92">
         <v>1704</v>
       </c>
-      <c r="E90">
+      <c r="F92">
         <v>947</v>
       </c>
-      <c r="F90">
+      <c r="G92">
         <v>1674</v>
       </c>
-      <c r="G90">
+      <c r="H92">
         <v>3522</v>
       </c>
-      <c r="H90">
+      <c r="I92">
         <v>790</v>
       </c>
-      <c r="I90">
+      <c r="J92">
         <v>2300</v>
       </c>
-      <c r="J90">
+      <c r="K92">
         <v>6527</v>
       </c>
-      <c r="K90">
+      <c r="L92">
         <v>54</v>
       </c>
-      <c r="L90">
+      <c r="M92">
         <v>72</v>
       </c>
-      <c r="M90">
+      <c r="N92">
         <v>100</v>
       </c>
-      <c r="N90">
+      <c r="O92">
         <v>6269</v>
       </c>
-      <c r="O90">
+      <c r="P92">
         <v>36848</v>
       </c>
-      <c r="P90">
+      <c r="Q92">
         <v>55272</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A91">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="C93">
         <v>534</v>
       </c>
-      <c r="C91">
+      <c r="D93">
         <v>1164</v>
       </c>
-      <c r="D91">
+      <c r="E93">
         <v>1722</v>
       </c>
-      <c r="E91">
+      <c r="F93">
         <v>958</v>
       </c>
-      <c r="F91">
+      <c r="G93">
         <v>1692</v>
       </c>
-      <c r="G91">
+      <c r="H93">
         <v>3560</v>
       </c>
-      <c r="H91">
+      <c r="I93">
         <v>805</v>
       </c>
-      <c r="I91">
+      <c r="J93">
         <v>2333</v>
       </c>
-      <c r="J91">
+      <c r="K93">
         <v>6642</v>
       </c>
-      <c r="K91">
+      <c r="L93">
         <v>55</v>
       </c>
-      <c r="L91">
+      <c r="M93">
         <v>73</v>
       </c>
-      <c r="M91">
+      <c r="N93">
         <v>102</v>
       </c>
-      <c r="N91">
+      <c r="O93">
         <v>6373</v>
       </c>
-      <c r="O91">
+      <c r="P93">
         <v>37754</v>
       </c>
-      <c r="P91">
+      <c r="Q93">
         <v>56631</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A92">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="C94">
         <v>540</v>
       </c>
-      <c r="C92">
+      <c r="D94">
         <v>1176</v>
       </c>
-      <c r="D92">
+      <c r="E94">
         <v>1739</v>
       </c>
-      <c r="E92">
+      <c r="F94">
         <v>969</v>
       </c>
-      <c r="F92">
+      <c r="G94">
         <v>1710</v>
       </c>
-      <c r="G92">
+      <c r="H94">
         <v>3598</v>
       </c>
-      <c r="H92">
+      <c r="I94">
         <v>821</v>
       </c>
-      <c r="I92">
+      <c r="J94">
         <v>2368</v>
       </c>
-      <c r="J92">
+      <c r="K94">
         <v>6757</v>
       </c>
-      <c r="K92">
+      <c r="L94">
         <v>55</v>
       </c>
-      <c r="L92">
+      <c r="M94">
         <v>73</v>
       </c>
-      <c r="M92">
+      <c r="N94">
         <v>102</v>
       </c>
-      <c r="N92">
+      <c r="O94">
         <v>6477</v>
       </c>
-      <c r="O92">
+      <c r="P94">
         <v>38660</v>
       </c>
-      <c r="P92">
+      <c r="Q94">
         <v>57990</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A93">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="C95">
         <v>546</v>
       </c>
-      <c r="C93">
+      <c r="D95">
         <v>1188</v>
       </c>
-      <c r="D93">
+      <c r="E95">
         <v>1757</v>
       </c>
-      <c r="E93">
+      <c r="F95">
         <v>980</v>
       </c>
-      <c r="F93">
+      <c r="G95">
         <v>1728</v>
       </c>
-      <c r="G93">
+      <c r="H95">
         <v>3636</v>
       </c>
-      <c r="H93">
+      <c r="I95">
         <v>837</v>
       </c>
-      <c r="I93">
+      <c r="J95">
         <v>2403</v>
       </c>
-      <c r="J93">
+      <c r="K95">
         <v>6872</v>
       </c>
-      <c r="K93">
+      <c r="L95">
         <v>56</v>
       </c>
-      <c r="L93">
+      <c r="M95">
         <v>74</v>
       </c>
-      <c r="M93">
+      <c r="N95">
         <v>104</v>
       </c>
-      <c r="N93">
+      <c r="O95">
         <v>6581</v>
       </c>
-      <c r="O93">
+      <c r="P95">
         <v>39566</v>
       </c>
-      <c r="P93">
+      <c r="Q95">
         <v>59349</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A94">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="C96">
         <v>552</v>
       </c>
-      <c r="C94">
+      <c r="D96">
         <v>1200</v>
       </c>
-      <c r="D94">
+      <c r="E96">
         <v>1774</v>
       </c>
-      <c r="E94">
+      <c r="F96">
         <v>991</v>
       </c>
-      <c r="F94">
+      <c r="G96">
         <v>1746</v>
       </c>
-      <c r="G94">
+      <c r="H96">
         <v>3674</v>
       </c>
-      <c r="H94">
+      <c r="I96">
         <v>853</v>
       </c>
-      <c r="I94">
+      <c r="J96">
         <v>2436</v>
       </c>
-      <c r="J94">
+      <c r="K96">
         <v>6987</v>
       </c>
-      <c r="K94">
+      <c r="L96">
         <v>56</v>
       </c>
-      <c r="L94">
+      <c r="M96">
         <v>74</v>
       </c>
-      <c r="M94">
+      <c r="N96">
         <v>104</v>
       </c>
-      <c r="N94">
+      <c r="O96">
         <v>6685</v>
       </c>
-      <c r="O94">
+      <c r="P96">
         <v>40472</v>
       </c>
-      <c r="P94">
+      <c r="Q96">
         <v>60708</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A95">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="C97">
         <v>558</v>
       </c>
-      <c r="C95">
+      <c r="D97">
         <v>1212</v>
       </c>
-      <c r="D95">
+      <c r="E97">
         <v>1792</v>
       </c>
-      <c r="E95">
+      <c r="F97">
         <v>1002</v>
       </c>
-      <c r="F95">
+      <c r="G97">
         <v>1764</v>
       </c>
-      <c r="G95">
+      <c r="H97">
         <v>3712</v>
       </c>
-      <c r="H95">
+      <c r="I97">
         <v>868</v>
       </c>
-      <c r="I95">
+      <c r="J97">
         <v>2471</v>
       </c>
-      <c r="J95">
+      <c r="K97">
         <v>7102</v>
       </c>
-      <c r="K95">
+      <c r="L97">
         <v>57</v>
       </c>
-      <c r="L95">
+      <c r="M97">
         <v>76</v>
       </c>
-      <c r="M95">
+      <c r="N97">
         <v>105</v>
       </c>
-      <c r="N95">
+      <c r="O97">
         <v>6789</v>
       </c>
-      <c r="O95">
+      <c r="P97">
         <v>41378</v>
       </c>
-      <c r="P95">
+      <c r="Q97">
         <v>62067</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="C98">
         <v>564</v>
       </c>
-      <c r="C96">
+      <c r="D98">
         <v>1224</v>
       </c>
-      <c r="D96">
+      <c r="E98">
         <v>1810</v>
       </c>
-      <c r="E96">
+      <c r="F98">
         <v>1013</v>
       </c>
-      <c r="F96">
+      <c r="G98">
         <v>1782</v>
       </c>
-      <c r="G96">
+      <c r="H98">
         <v>3750</v>
       </c>
-      <c r="H96">
+      <c r="I98">
         <v>884</v>
       </c>
-      <c r="I96">
+      <c r="J98">
         <v>2504</v>
       </c>
-      <c r="J96">
+      <c r="K98">
         <v>7217</v>
       </c>
-      <c r="K96">
+      <c r="L98">
         <v>58</v>
       </c>
-      <c r="L96">
+      <c r="M98">
         <v>77</v>
       </c>
-      <c r="M96">
+      <c r="N98">
         <v>107</v>
       </c>
-      <c r="N96">
+      <c r="O98">
         <v>6893</v>
       </c>
-      <c r="O96">
+      <c r="P98">
         <v>42284</v>
       </c>
-      <c r="P96">
+      <c r="Q98">
         <v>63426</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A97">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="C99">
         <v>570</v>
       </c>
-      <c r="C97">
+      <c r="D99">
         <v>1236</v>
       </c>
-      <c r="D97">
+      <c r="E99">
         <v>1827</v>
       </c>
-      <c r="E97">
+      <c r="F99">
         <v>1024</v>
       </c>
-      <c r="F97">
+      <c r="G99">
         <v>1800</v>
       </c>
-      <c r="G97">
+      <c r="H99">
         <v>3788</v>
       </c>
-      <c r="H97">
+      <c r="I99">
         <v>900</v>
       </c>
-      <c r="I97">
+      <c r="J99">
         <v>2539</v>
       </c>
-      <c r="J97">
+      <c r="K99">
         <v>7332</v>
       </c>
-      <c r="K97">
+      <c r="L99">
         <v>58</v>
       </c>
-      <c r="L97">
+      <c r="M99">
         <v>77</v>
       </c>
-      <c r="M97">
+      <c r="N99">
         <v>107</v>
       </c>
-      <c r="N97">
+      <c r="O99">
         <v>6997</v>
       </c>
-      <c r="O97">
+      <c r="P99">
         <v>43190</v>
       </c>
-      <c r="P97">
+      <c r="Q99">
         <v>64785</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A98">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="C100">
         <v>576</v>
       </c>
-      <c r="C98">
+      <c r="D100">
         <v>1248</v>
       </c>
-      <c r="D98">
+      <c r="E100">
         <v>1845</v>
       </c>
-      <c r="E98">
+      <c r="F100">
         <v>1035</v>
       </c>
-      <c r="F98">
+      <c r="G100">
         <v>1818</v>
       </c>
-      <c r="G98">
+      <c r="H100">
         <v>3826</v>
       </c>
-      <c r="H98">
+      <c r="I100">
         <v>916</v>
       </c>
-      <c r="I98">
+      <c r="J100">
         <v>2573</v>
       </c>
-      <c r="J98">
+      <c r="K100">
         <v>7447</v>
       </c>
-      <c r="K98">
+      <c r="L100">
         <v>59</v>
       </c>
-      <c r="L98">
+      <c r="M100">
         <v>78</v>
       </c>
-      <c r="M98">
+      <c r="N100">
         <v>109</v>
       </c>
-      <c r="N98">
+      <c r="O100">
         <v>7101</v>
       </c>
-      <c r="O98">
+      <c r="P100">
         <v>44096</v>
       </c>
-      <c r="P98">
+      <c r="Q100">
         <v>66144</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A99">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="C101">
         <v>582</v>
       </c>
-      <c r="C99">
+      <c r="D101">
         <v>1260</v>
       </c>
-      <c r="D99">
+      <c r="E101">
         <v>1862</v>
       </c>
-      <c r="E99">
+      <c r="F101">
         <v>1046</v>
       </c>
-      <c r="F99">
+      <c r="G101">
         <v>1836</v>
       </c>
-      <c r="G99">
+      <c r="H101">
         <v>3864</v>
       </c>
-      <c r="H99">
+      <c r="I101">
         <v>932</v>
       </c>
-      <c r="I99">
+      <c r="J101">
         <v>2607</v>
       </c>
-      <c r="J99">
+      <c r="K101">
         <v>7562</v>
       </c>
-      <c r="K99">
+      <c r="L101">
         <v>59</v>
       </c>
-      <c r="L99">
+      <c r="M101">
         <v>78</v>
       </c>
-      <c r="M99">
+      <c r="N101">
         <v>109</v>
       </c>
-      <c r="N99">
+      <c r="O101">
         <v>7205</v>
       </c>
-      <c r="O99">
+      <c r="P101">
         <v>45002</v>
       </c>
-      <c r="P99">
+      <c r="Q101">
         <v>67503</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A100">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="C102">
         <v>588</v>
       </c>
-      <c r="C100">
+      <c r="D102">
         <v>1272</v>
       </c>
-      <c r="D100">
+      <c r="E102">
         <v>1880</v>
       </c>
-      <c r="E100">
+      <c r="F102">
         <v>1057</v>
       </c>
-      <c r="F100">
+      <c r="G102">
         <v>1854</v>
       </c>
-      <c r="G100">
+      <c r="H102">
         <v>3902</v>
       </c>
-      <c r="H100">
+      <c r="I102">
         <v>948</v>
       </c>
-      <c r="I100">
+      <c r="J102">
         <v>2641</v>
       </c>
-      <c r="J100">
+      <c r="K102">
         <v>7677</v>
       </c>
-      <c r="K100">
+      <c r="L102">
         <v>60</v>
       </c>
-      <c r="L100">
+      <c r="M102">
         <v>80</v>
       </c>
-      <c r="M100">
+      <c r="N102">
         <v>111</v>
       </c>
-      <c r="N100">
+      <c r="O102">
         <v>7309</v>
       </c>
-      <c r="O100">
+      <c r="P102">
         <v>45908</v>
       </c>
-      <c r="P100">
+      <c r="Q102">
         <v>68862</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A101">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="C103">
         <v>594</v>
       </c>
-      <c r="C101">
+      <c r="D103">
         <v>1284</v>
       </c>
-      <c r="D101">
+      <c r="E103">
         <v>1898</v>
       </c>
-      <c r="E101">
+      <c r="F103">
         <v>1068</v>
       </c>
-      <c r="F101">
+      <c r="G103">
         <v>1872</v>
       </c>
-      <c r="G101">
+      <c r="H103">
         <v>3940</v>
       </c>
-      <c r="H101">
+      <c r="I103">
         <v>964</v>
       </c>
-      <c r="I101">
+      <c r="J103">
         <v>2675</v>
       </c>
-      <c r="J101">
+      <c r="K103">
         <v>7792</v>
       </c>
-      <c r="K101">
+      <c r="L103">
         <v>60</v>
       </c>
-      <c r="L101">
+      <c r="M103">
         <v>80</v>
       </c>
-      <c r="M101">
+      <c r="N103">
         <v>111</v>
       </c>
-      <c r="N101">
+      <c r="O103">
         <v>7413</v>
       </c>
-      <c r="O101">
+      <c r="P103">
         <v>46814</v>
       </c>
-      <c r="P101">
+      <c r="Q103">
         <v>70221</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A102">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="C104">
         <v>600</v>
       </c>
-      <c r="C102">
+      <c r="D104">
         <v>1296</v>
       </c>
-      <c r="D102">
+      <c r="E104">
         <v>1915</v>
       </c>
-      <c r="E102">
+      <c r="F104">
         <v>1079</v>
       </c>
-      <c r="F102">
+      <c r="G104">
         <v>1890</v>
       </c>
-      <c r="G102">
+      <c r="H104">
         <v>3978</v>
       </c>
-      <c r="H102">
+      <c r="I104">
         <v>982</v>
       </c>
-      <c r="I102">
+      <c r="J104">
         <v>2709</v>
       </c>
-      <c r="J102">
+      <c r="K104">
         <v>7907</v>
       </c>
-      <c r="K102">
+      <c r="L104">
         <v>61</v>
       </c>
-      <c r="L102">
+      <c r="M104">
         <v>81</v>
       </c>
-      <c r="M102">
+      <c r="N104">
         <v>113</v>
       </c>
-      <c r="N102">
+      <c r="O104">
         <v>7517</v>
       </c>
-      <c r="O102">
+      <c r="P104">
         <v>47720</v>
       </c>
-      <c r="P102">
+      <c r="Q104">
         <v>71580</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A103">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="C105">
         <v>606</v>
       </c>
-      <c r="C103">
+      <c r="D105">
         <v>1308</v>
       </c>
-      <c r="D103">
+      <c r="E105">
         <v>1933</v>
       </c>
-      <c r="E103">
+      <c r="F105">
         <v>1090</v>
       </c>
-      <c r="F103">
+      <c r="G105">
         <v>1908</v>
       </c>
-      <c r="G103">
+      <c r="H105">
         <v>4016</v>
       </c>
-      <c r="H103">
+      <c r="I105">
         <v>999</v>
       </c>
-      <c r="I103">
+      <c r="J105">
         <v>2744</v>
       </c>
-      <c r="J103">
+      <c r="K105">
         <v>8022</v>
       </c>
-      <c r="K103">
+      <c r="L105">
         <v>62</v>
       </c>
-      <c r="L103">
+      <c r="M105">
         <v>82</v>
       </c>
-      <c r="M103">
+      <c r="N105">
         <v>115</v>
       </c>
-      <c r="N103">
+      <c r="O105">
         <v>7621</v>
       </c>
-      <c r="O103">
+      <c r="P105">
         <v>48626</v>
       </c>
-      <c r="P103">
+      <c r="Q105">
         <v>72939</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A104">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="C106">
         <v>612</v>
       </c>
-      <c r="C104">
+      <c r="D106">
         <v>1320</v>
       </c>
-      <c r="D104">
+      <c r="E106">
         <v>1950</v>
       </c>
-      <c r="E104">
+      <c r="F106">
         <v>1101</v>
       </c>
-      <c r="F104">
+      <c r="G106">
         <v>1926</v>
       </c>
-      <c r="G104">
+      <c r="H106">
         <v>4054</v>
       </c>
-      <c r="H104">
+      <c r="I106">
         <v>1016</v>
       </c>
-      <c r="I104">
+      <c r="J106">
         <v>2777</v>
       </c>
-      <c r="J104">
+      <c r="K106">
         <v>8137</v>
       </c>
-      <c r="K104">
+      <c r="L106">
         <v>62</v>
       </c>
-      <c r="L104">
+      <c r="M106">
         <v>82</v>
       </c>
-      <c r="M104">
+      <c r="N106">
         <v>115</v>
       </c>
-      <c r="N104">
+      <c r="O106">
         <v>7725</v>
       </c>
-      <c r="O104">
+      <c r="P106">
         <v>49532</v>
       </c>
-      <c r="P104">
+      <c r="Q106">
         <v>74298</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A105">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="C107">
         <v>618</v>
       </c>
-      <c r="C105">
+      <c r="D107">
         <v>1332</v>
       </c>
-      <c r="D105">
+      <c r="E107">
         <v>1968</v>
       </c>
-      <c r="E105">
+      <c r="F107">
         <v>1112</v>
       </c>
-      <c r="F105">
+      <c r="G107">
         <v>1944</v>
       </c>
-      <c r="G105">
+      <c r="H107">
         <v>4092</v>
       </c>
-      <c r="H105">
+      <c r="I107">
         <v>1033</v>
       </c>
-      <c r="I105">
+      <c r="J107">
         <v>2812</v>
       </c>
-      <c r="J105">
+      <c r="K107">
         <v>8252</v>
       </c>
-      <c r="K105">
+      <c r="L107">
         <v>63</v>
       </c>
-      <c r="L105">
+      <c r="M107">
         <v>84</v>
       </c>
-      <c r="M105">
+      <c r="N107">
         <v>117</v>
       </c>
-      <c r="N105">
+      <c r="O107">
         <v>7829</v>
       </c>
-      <c r="O105">
+      <c r="P107">
         <v>50438</v>
       </c>
-      <c r="P105">
+      <c r="Q107">
         <v>75657</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A106">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="C108">
         <v>624</v>
       </c>
-      <c r="C106">
+      <c r="D108">
         <v>1344</v>
       </c>
-      <c r="D106">
+      <c r="E108">
         <v>1986</v>
       </c>
-      <c r="E106">
+      <c r="F108">
         <v>1123</v>
       </c>
-      <c r="F106">
+      <c r="G108">
         <v>1962</v>
       </c>
-      <c r="G106">
+      <c r="H108">
         <v>4130</v>
       </c>
-      <c r="H106">
+      <c r="I108">
         <v>1051</v>
       </c>
-      <c r="I106">
+      <c r="J108">
         <v>2845</v>
       </c>
-      <c r="J106">
+      <c r="K108">
         <v>8367</v>
       </c>
-      <c r="K106">
+      <c r="L108">
         <v>63</v>
       </c>
-      <c r="L106">
+      <c r="M108">
         <v>84</v>
       </c>
-      <c r="M106">
+      <c r="N108">
         <v>117</v>
       </c>
-      <c r="N106">
+      <c r="O108">
         <v>7933</v>
       </c>
-      <c r="O106">
+      <c r="P108">
         <v>51344</v>
       </c>
-      <c r="P106">
+      <c r="Q108">
         <v>77016</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A107">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="C109">
         <v>630</v>
       </c>
-      <c r="C107">
+      <c r="D109">
         <v>1356</v>
       </c>
-      <c r="D107">
+      <c r="E109">
         <v>2003</v>
       </c>
-      <c r="E107">
+      <c r="F109">
         <v>1134</v>
       </c>
-      <c r="F107">
+      <c r="G109">
         <v>1980</v>
       </c>
-      <c r="G107">
+      <c r="H109">
         <v>4168</v>
       </c>
-      <c r="H107">
+      <c r="I109">
         <v>1068</v>
       </c>
-      <c r="I107">
+      <c r="J109">
         <v>2880</v>
       </c>
-      <c r="J107">
+      <c r="K109">
         <v>8482</v>
       </c>
-      <c r="K107">
+      <c r="L109">
         <v>64</v>
       </c>
-      <c r="L107">
+      <c r="M109">
         <v>85</v>
       </c>
-      <c r="M107">
+      <c r="N109">
         <v>118</v>
       </c>
-      <c r="N107">
+      <c r="O109">
         <v>8037</v>
       </c>
-      <c r="O107">
+      <c r="P109">
         <v>52250</v>
       </c>
-      <c r="P107">
+      <c r="Q109">
         <v>78375</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A108">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="C110">
         <v>636</v>
       </c>
-      <c r="C108">
+      <c r="D110">
         <v>1368</v>
       </c>
-      <c r="D108">
+      <c r="E110">
         <v>2021</v>
       </c>
-      <c r="E108">
+      <c r="F110">
         <v>1145</v>
       </c>
-      <c r="F108">
+      <c r="G110">
         <v>1998</v>
       </c>
-      <c r="G108">
+      <c r="H110">
         <v>4206</v>
       </c>
-      <c r="H108">
+      <c r="I110">
         <v>1085</v>
       </c>
-      <c r="I108">
+      <c r="J110">
         <v>2915</v>
       </c>
-      <c r="J108">
+      <c r="K110">
         <v>8597</v>
       </c>
-      <c r="K108">
+      <c r="L110">
         <v>65</v>
       </c>
-      <c r="L108">
+      <c r="M110">
         <v>86</v>
       </c>
-      <c r="M108">
+      <c r="N110">
         <v>120</v>
       </c>
-      <c r="N108">
+      <c r="O110">
         <v>8141</v>
       </c>
-      <c r="O108">
+      <c r="P110">
         <v>53156</v>
       </c>
-      <c r="P108">
+      <c r="Q110">
         <v>79734</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A109">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="C111">
         <v>642</v>
       </c>
-      <c r="C109">
+      <c r="D111">
         <v>1380</v>
       </c>
-      <c r="D109">
+      <c r="E111">
         <v>2038</v>
       </c>
-      <c r="E109">
+      <c r="F111">
         <v>1156</v>
       </c>
-      <c r="F109">
+      <c r="G111">
         <v>2016</v>
       </c>
-      <c r="G109">
+      <c r="H111">
         <v>4244</v>
       </c>
-      <c r="H109">
+      <c r="I111">
         <v>1103</v>
       </c>
-      <c r="I109">
+      <c r="J111">
         <v>2948</v>
       </c>
-      <c r="J109">
+      <c r="K111">
         <v>8712</v>
       </c>
-      <c r="K109">
+      <c r="L111">
         <v>65</v>
       </c>
-      <c r="L109">
+      <c r="M111">
         <v>86</v>
       </c>
-      <c r="M109">
+      <c r="N111">
         <v>120</v>
       </c>
-      <c r="N109">
+      <c r="O111">
         <v>8245</v>
       </c>
-      <c r="O109">
+      <c r="P111">
         <v>54062</v>
       </c>
-      <c r="P109">
+      <c r="Q111">
         <v>81093</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A110">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="C112">
         <v>648</v>
       </c>
-      <c r="C110">
+      <c r="D112">
         <v>1392</v>
       </c>
-      <c r="D110">
+      <c r="E112">
         <v>2056</v>
       </c>
-      <c r="E110">
+      <c r="F112">
         <v>1167</v>
       </c>
-      <c r="F110">
+      <c r="G112">
         <v>2034</v>
       </c>
-      <c r="G110">
+      <c r="H112">
         <v>4282</v>
       </c>
-      <c r="H110">
+      <c r="I112">
         <v>1120</v>
       </c>
-      <c r="I110">
+      <c r="J112">
         <v>2983</v>
       </c>
-      <c r="J110">
+      <c r="K112">
         <v>8827</v>
       </c>
-      <c r="K110">
+      <c r="L112">
         <v>66</v>
       </c>
-      <c r="L110">
+      <c r="M112">
         <v>88</v>
       </c>
-      <c r="M110">
+      <c r="N112">
         <v>122</v>
       </c>
-      <c r="N110">
+      <c r="O112">
         <v>8349</v>
       </c>
-      <c r="O110">
+      <c r="P112">
         <v>54968</v>
       </c>
-      <c r="P110">
+      <c r="Q112">
         <v>82452</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A111">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="C113">
         <v>654</v>
       </c>
-      <c r="C111">
+      <c r="D113">
         <v>1404</v>
       </c>
-      <c r="D111">
+      <c r="E113">
         <v>2074</v>
       </c>
-      <c r="E111">
+      <c r="F113">
         <v>1178</v>
       </c>
-      <c r="F111">
+      <c r="G113">
         <v>2052</v>
       </c>
-      <c r="G111">
+      <c r="H113">
         <v>4320</v>
       </c>
-      <c r="H111">
+      <c r="I113">
         <v>1137</v>
       </c>
-      <c r="I111">
+      <c r="J113">
         <v>3016</v>
       </c>
-      <c r="J111">
+      <c r="K113">
         <v>8942</v>
       </c>
-      <c r="K111">
+      <c r="L113">
         <v>67</v>
       </c>
-      <c r="L111">
+      <c r="M113">
         <v>89</v>
       </c>
-      <c r="M111">
+      <c r="N113">
         <v>124</v>
       </c>
-      <c r="N111">
+      <c r="O113">
         <v>8453</v>
       </c>
-      <c r="O111">
+      <c r="P113">
         <v>55874</v>
       </c>
-      <c r="P111">
+      <c r="Q113">
         <v>83811</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A112">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="C114">
         <v>2100</v>
       </c>
-      <c r="C112">
+      <c r="D114">
         <v>2100</v>
       </c>
-      <c r="D112">
+      <c r="E114">
         <v>2100</v>
       </c>
-      <c r="E112">
+      <c r="F114">
         <v>6532</v>
       </c>
-      <c r="F112">
+      <c r="G114">
         <v>6532</v>
       </c>
-      <c r="G112">
+      <c r="H114">
         <v>6532</v>
       </c>
-      <c r="H112">
+      <c r="I114">
         <v>10000</v>
       </c>
-      <c r="I112">
+      <c r="J114">
         <v>10000</v>
       </c>
-      <c r="J112">
+      <c r="K114">
         <v>10000</v>
       </c>
-      <c r="K112">
+      <c r="L114">
         <v>130</v>
       </c>
-      <c r="L112">
+      <c r="M114">
         <v>130</v>
       </c>
-      <c r="M112">
+      <c r="N114">
         <v>130</v>
       </c>
-      <c r="N112">
+      <c r="O114">
         <v>160000</v>
       </c>
-      <c r="O112">
+      <c r="P114">
         <v>160000</v>
       </c>
-      <c r="P112">
+      <c r="Q114">
         <v>160000</v>
       </c>
     </row>
@@ -6069,12 +6567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6082,12 +6580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
